--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9766534183273652</v>
+        <v>0.9766534183273645</v>
       </c>
       <c r="D2">
-        <v>0.9994513415376711</v>
+        <v>0.9994513415376706</v>
       </c>
       <c r="E2">
-        <v>0.9838219414526873</v>
+        <v>0.9838219414526869</v>
       </c>
       <c r="F2">
-        <v>0.9584133983881692</v>
+        <v>0.9584133983881685</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.033987707141404</v>
       </c>
       <c r="J2">
-        <v>0.9995555728255962</v>
+        <v>0.9995555728255956</v>
       </c>
       <c r="K2">
         <v>1.010918325339827</v>
       </c>
       <c r="L2">
-        <v>0.9955113603475935</v>
+        <v>0.9955113603475929</v>
       </c>
       <c r="M2">
-        <v>0.9704842015871569</v>
+        <v>0.9704842015871562</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862925100093933</v>
+        <v>0.9862925100093936</v>
       </c>
       <c r="D3">
         <v>1.007035602565211</v>
       </c>
       <c r="E3">
-        <v>0.9921739378225892</v>
+        <v>0.9921739378225894</v>
       </c>
       <c r="F3">
-        <v>0.9729128566604097</v>
+        <v>0.9729128566604095</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.037914285620308</v>
       </c>
       <c r="J3">
-        <v>1.007163960563325</v>
+        <v>1.007163960563326</v>
       </c>
       <c r="K3">
         <v>1.017579246122568</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922647636479144</v>
+        <v>0.9922647636479135</v>
       </c>
       <c r="D4">
         <v>1.011734628864779</v>
       </c>
       <c r="E4">
-        <v>0.9973490025814796</v>
+        <v>0.9973490025814787</v>
       </c>
       <c r="F4">
-        <v>0.981790928459006</v>
+        <v>0.9817909284590051</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.040321116557944</v>
       </c>
       <c r="J4">
-        <v>1.011868428844483</v>
+        <v>1.011868428844482</v>
       </c>
       <c r="K4">
-        <v>1.021693460616293</v>
+        <v>1.021693460616292</v>
       </c>
       <c r="L4">
-        <v>1.007479528460466</v>
+        <v>1.007479528460465</v>
       </c>
       <c r="M4">
-        <v>0.992114205255491</v>
+        <v>0.99211420525549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9947172139488529</v>
+        <v>0.9947172139488535</v>
       </c>
       <c r="D5">
         <v>1.013664144312429</v>
       </c>
       <c r="E5">
-        <v>0.999474057098824</v>
+        <v>0.9994740570988244</v>
       </c>
       <c r="F5">
-        <v>0.985414958046009</v>
+        <v>0.9854149580460086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041303397052131</v>
+        <v>1.041303397052132</v>
       </c>
       <c r="J5">
-        <v>1.01379796431878</v>
+        <v>1.013797964318781</v>
       </c>
       <c r="K5">
-        <v>1.023379868942715</v>
+        <v>1.023379868942716</v>
       </c>
       <c r="L5">
-        <v>1.009354074261482</v>
+        <v>1.009354074261483</v>
       </c>
       <c r="M5">
-        <v>0.9954635483812692</v>
+        <v>0.995463548381269</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9951257095722045</v>
+        <v>0.995125709572205</v>
       </c>
       <c r="D6">
         <v>1.013985528717203</v>
       </c>
       <c r="E6">
-        <v>0.9998280145653475</v>
+        <v>0.9998280145653476</v>
       </c>
       <c r="F6">
-        <v>0.9860174181037875</v>
+        <v>0.986017418103787</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.041466659641815</v>
       </c>
       <c r="J6">
-        <v>1.014119223574946</v>
+        <v>1.014119223574947</v>
       </c>
       <c r="K6">
-        <v>1.023660588187927</v>
+        <v>1.023660588187928</v>
       </c>
       <c r="L6">
         <v>1.009666148594137</v>
       </c>
       <c r="M6">
-        <v>0.996020232720585</v>
+        <v>0.9960202327205846</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922977561663923</v>
+        <v>0.9922977561663903</v>
       </c>
       <c r="D7">
-        <v>1.011760586886146</v>
+        <v>1.011760586886144</v>
       </c>
       <c r="E7">
-        <v>0.9973775909633972</v>
+        <v>0.9973775909633952</v>
       </c>
       <c r="F7">
-        <v>0.9818397637203351</v>
+        <v>0.9818397637203338</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040334354905716</v>
+        <v>1.040334354905715</v>
       </c>
       <c r="J7">
-        <v>1.011894395839033</v>
+        <v>1.011894395839031</v>
       </c>
       <c r="K7">
-        <v>1.021716159777403</v>
+        <v>1.021716159777402</v>
       </c>
       <c r="L7">
-        <v>1.007504757391319</v>
+        <v>1.007504757391317</v>
       </c>
       <c r="M7">
-        <v>0.9921593465205168</v>
+        <v>0.9921593465205155</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9799691622205404</v>
+        <v>0.9799691622205389</v>
       </c>
       <c r="D8">
-        <v>1.00206021620451</v>
+        <v>1.002060216204508</v>
       </c>
       <c r="E8">
-        <v>0.9866948104246478</v>
+        <v>0.9866948104246467</v>
       </c>
       <c r="F8">
-        <v>0.9634260769364744</v>
+        <v>0.9634260769364719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035344079449296</v>
+        <v>1.035344079449295</v>
       </c>
       <c r="J8">
-        <v>1.002174814166903</v>
+        <v>1.002174814166902</v>
       </c>
       <c r="K8">
-        <v>1.013212352686641</v>
+        <v>1.013212352686639</v>
       </c>
       <c r="L8">
-        <v>0.9980580770871277</v>
+        <v>0.9980580770871268</v>
       </c>
       <c r="M8">
-        <v>0.9751253652286022</v>
+        <v>0.9751253652285998</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9559389331020314</v>
+        <v>0.9559389331020292</v>
       </c>
       <c r="D9">
-        <v>0.9831555873423911</v>
+        <v>0.9831555873423892</v>
       </c>
       <c r="E9">
-        <v>0.9658807151972298</v>
+        <v>0.965880715197228</v>
       </c>
       <c r="F9">
-        <v>0.9264156050669364</v>
+        <v>0.9264156050669341</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025386975533351</v>
+        <v>1.02538697553335</v>
       </c>
       <c r="J9">
-        <v>0.9831496496136573</v>
+        <v>0.9831496496136554</v>
       </c>
       <c r="K9">
-        <v>0.996527996146179</v>
+        <v>0.9965279961461773</v>
       </c>
       <c r="L9">
-        <v>0.9795527230241704</v>
+        <v>0.9795527230241685</v>
       </c>
       <c r="M9">
-        <v>0.9408271457215494</v>
+        <v>0.9408271457215471</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.9378793883290477</v>
       </c>
       <c r="D10">
-        <v>0.9689539817284049</v>
+        <v>0.9689539817284046</v>
       </c>
       <c r="E10">
         <v>0.9502539923878605</v>
       </c>
       <c r="F10">
-        <v>0.8973410195456425</v>
+        <v>0.897341019545642</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1.01771725520952</v>
       </c>
       <c r="J10">
-        <v>0.9687945272030862</v>
+        <v>0.9687945272030861</v>
       </c>
       <c r="K10">
         <v>0.9839073568635962</v>
@@ -752,7 +752,7 @@
         <v>0.9655835242892163</v>
       </c>
       <c r="M10">
-        <v>0.9138491594924525</v>
+        <v>0.9138491594924522</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.929422569489379</v>
+        <v>0.9294225694893785</v>
       </c>
       <c r="D11">
-        <v>0.9623052420334539</v>
+        <v>0.9623052420334534</v>
       </c>
       <c r="E11">
-        <v>0.9429430558514158</v>
+        <v>0.9429430558514154</v>
       </c>
       <c r="F11">
-        <v>0.8832460468729569</v>
+        <v>0.8832460468729567</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.014070625290251</v>
       </c>
       <c r="J11">
-        <v>0.9620576608684405</v>
+        <v>0.9620576608684401</v>
       </c>
       <c r="K11">
-        <v>0.9779748454094573</v>
+        <v>0.9779748454094569</v>
       </c>
       <c r="L11">
-        <v>0.9590276362560211</v>
+        <v>0.9590276362560206</v>
       </c>
       <c r="M11">
-        <v>0.9007657398303477</v>
+        <v>0.9007657398303476</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9261676004357625</v>
+        <v>0.9261676004357619</v>
       </c>
       <c r="D12">
-        <v>0.9597463000783892</v>
+        <v>0.9597463000783885</v>
       </c>
       <c r="E12">
-        <v>0.9401304311452062</v>
+        <v>0.9401304311452053</v>
       </c>
       <c r="F12">
-        <v>0.8777247398853676</v>
+        <v>0.8777247398853668</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.012657322959131</v>
       </c>
       <c r="J12">
-        <v>0.9594622718976201</v>
+        <v>0.9594622718976196</v>
       </c>
       <c r="K12">
-        <v>0.9756875831195624</v>
+        <v>0.9756875831195616</v>
       </c>
       <c r="L12">
-        <v>0.9565021324248076</v>
+        <v>0.9565021324248072</v>
       </c>
       <c r="M12">
-        <v>0.8956404027230682</v>
+        <v>0.8956404027230672</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9268713021296793</v>
+        <v>0.9268713021296797</v>
       </c>
       <c r="D13">
-        <v>0.9602995243520267</v>
+        <v>0.9602995243520271</v>
       </c>
       <c r="E13">
-        <v>0.9407384370217291</v>
+        <v>0.9407384370217298</v>
       </c>
       <c r="F13">
-        <v>0.878923245237443</v>
+        <v>0.8789232452374434</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012963338517823</v>
+        <v>1.012963338517824</v>
       </c>
       <c r="J13">
-        <v>0.960023490578529</v>
+        <v>0.9600234905785294</v>
       </c>
       <c r="K13">
-        <v>0.9761822589454259</v>
+        <v>0.9761822589454263</v>
       </c>
       <c r="L13">
-        <v>0.9570482282074572</v>
+        <v>0.9570482282074578</v>
       </c>
       <c r="M13">
-        <v>0.8967529582700356</v>
+        <v>0.8967529582700362</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9291559577557678</v>
+        <v>0.929155957755769</v>
       </c>
       <c r="D14">
-        <v>0.9620956403378886</v>
+        <v>0.9620956403378899</v>
       </c>
       <c r="E14">
-        <v>0.9427126479853456</v>
+        <v>0.9427126479853468</v>
       </c>
       <c r="F14">
-        <v>0.8827959183249505</v>
+        <v>0.8827959183249515</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013955070106103</v>
+        <v>1.013955070106104</v>
       </c>
       <c r="J14">
-        <v>0.9618451251786642</v>
+        <v>0.9618451251786655</v>
       </c>
       <c r="K14">
-        <v>0.9777875797535988</v>
+        <v>0.9777875797536</v>
       </c>
       <c r="L14">
-        <v>0.9588208188202262</v>
+        <v>0.9588208188202273</v>
       </c>
       <c r="M14">
-        <v>0.9003478952909797</v>
+        <v>0.9003478952909807</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9305479026621211</v>
+        <v>0.93054790266212</v>
       </c>
       <c r="D15">
-        <v>0.9631899466589738</v>
+        <v>0.963189946658973</v>
       </c>
       <c r="E15">
-        <v>0.9439156317272106</v>
+        <v>0.9439156317272096</v>
       </c>
       <c r="F15">
-        <v>0.8851419273603464</v>
+        <v>0.8851419273603449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014557965190038</v>
+        <v>1.014557965190037</v>
       </c>
       <c r="J15">
-        <v>0.962954647061131</v>
+        <v>0.9629546470611301</v>
       </c>
       <c r="K15">
-        <v>0.9787651090121102</v>
+        <v>0.9787651090121094</v>
       </c>
       <c r="L15">
-        <v>0.9599004969710754</v>
+        <v>0.9599004969710745</v>
       </c>
       <c r="M15">
-        <v>0.902525636487791</v>
+        <v>0.9025256364877897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9384258026516591</v>
+        <v>0.9384258026516614</v>
       </c>
       <c r="D16">
-        <v>0.9693835964450301</v>
+        <v>0.9693835964450318</v>
       </c>
       <c r="E16">
-        <v>0.9507265281265702</v>
+        <v>0.9507265281265723</v>
       </c>
       <c r="F16">
-        <v>0.8982401677988893</v>
+        <v>0.8982401677988916</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017951642412099</v>
+        <v>1.0179516424121</v>
       </c>
       <c r="J16">
-        <v>0.9692294971779055</v>
+        <v>0.9692294971779074</v>
       </c>
       <c r="K16">
-        <v>0.9842901749709994</v>
+        <v>0.9842901749710009</v>
       </c>
       <c r="L16">
-        <v>0.966006820025083</v>
+        <v>0.966006820025085</v>
       </c>
       <c r="M16">
-        <v>0.9146837140645764</v>
+        <v>0.9146837140645788</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9431857527413967</v>
+        <v>0.9431857527413932</v>
       </c>
       <c r="D17">
-        <v>0.9731262462418424</v>
+        <v>0.9731262462418395</v>
       </c>
       <c r="E17">
-        <v>0.9548436700562098</v>
+        <v>0.9548436700562067</v>
       </c>
       <c r="F17">
-        <v>0.9060179760564846</v>
+        <v>0.906017976056481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019987246385376</v>
+        <v>1.019987246385374</v>
       </c>
       <c r="J17">
-        <v>0.9730169875180186</v>
+        <v>0.9730169875180151</v>
       </c>
       <c r="K17">
-        <v>0.9876224688017716</v>
+        <v>0.9876224688017686</v>
       </c>
       <c r="L17">
-        <v>0.9696926556630832</v>
+        <v>0.9696926556630799</v>
       </c>
       <c r="M17">
-        <v>0.9219022807768694</v>
+        <v>0.9219022807768662</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,22 +1029,22 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9459021492484974</v>
+        <v>0.9459021492484972</v>
       </c>
       <c r="D18">
         <v>0.9752622434926289</v>
       </c>
       <c r="E18">
-        <v>0.9571938208397988</v>
+        <v>0.9571938208397986</v>
       </c>
       <c r="F18">
-        <v>0.9104143474384593</v>
+        <v>0.9104143474384606</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021143969465376</v>
+        <v>1.021143969465377</v>
       </c>
       <c r="J18">
         <v>0.9751770858187494</v>
@@ -1056,7 +1056,7 @@
         <v>0.9717947509132902</v>
       </c>
       <c r="M18">
-        <v>0.9259820725702729</v>
+        <v>0.9259820725702742</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9468186565487421</v>
+        <v>0.9468186565487415</v>
       </c>
       <c r="D19">
-        <v>0.9759829518758245</v>
+        <v>0.9759829518758243</v>
       </c>
       <c r="E19">
-        <v>0.9579868497531345</v>
+        <v>0.9579868497531342</v>
       </c>
       <c r="F19">
-        <v>0.9118910559131466</v>
+        <v>0.9118910559131468</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.021533438679844</v>
       </c>
       <c r="J19">
-        <v>0.975905676226289</v>
+        <v>0.9759056762262884</v>
       </c>
       <c r="K19">
-        <v>0.9901626925168636</v>
+        <v>0.9901626925168633</v>
       </c>
       <c r="L19">
-        <v>0.9725037684430395</v>
+        <v>0.9725037684430391</v>
       </c>
       <c r="M19">
         <v>0.9273523544080888</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9426813746649305</v>
+        <v>0.9426813746649303</v>
       </c>
       <c r="D20">
-        <v>0.9727296488167668</v>
+        <v>0.9727296488167666</v>
       </c>
       <c r="E20">
-        <v>0.954407342277704</v>
+        <v>0.9544073422777036</v>
       </c>
       <c r="F20">
-        <v>0.9051983601376947</v>
+        <v>0.9051983601376955</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.019772072395213</v>
       </c>
       <c r="J20">
-        <v>0.9726157945850131</v>
+        <v>0.9726157945850129</v>
       </c>
       <c r="K20">
         <v>0.9872695843583844</v>
       </c>
       <c r="L20">
-        <v>0.9693022323494692</v>
+        <v>0.9693022323494689</v>
       </c>
       <c r="M20">
-        <v>0.9211416438154038</v>
+        <v>0.9211416438154045</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9284864968899291</v>
+        <v>0.9284864968899246</v>
       </c>
       <c r="D21">
-        <v>0.9615693324905576</v>
+        <v>0.961569332490554</v>
       </c>
       <c r="E21">
-        <v>0.9421341168394766</v>
+        <v>0.9421341168394722</v>
       </c>
       <c r="F21">
-        <v>0.8816640058619466</v>
+        <v>0.881664005861944</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013664749453638</v>
+        <v>1.013664749453637</v>
       </c>
       <c r="J21">
-        <v>0.9613114093807106</v>
+        <v>0.961311409380706</v>
       </c>
       <c r="K21">
-        <v>0.9773172922522455</v>
+        <v>0.9773172922522417</v>
       </c>
       <c r="L21">
-        <v>0.9583014659717414</v>
+        <v>0.9583014659717369</v>
       </c>
       <c r="M21">
-        <v>0.8992971630363067</v>
+        <v>0.8992971630363044</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9188898410330887</v>
+        <v>0.9188898410330912</v>
       </c>
       <c r="D22">
-        <v>0.9540246727245196</v>
+        <v>0.9540246727245217</v>
       </c>
       <c r="E22">
-        <v>0.933844517945745</v>
+        <v>0.933844517945747</v>
       </c>
       <c r="F22">
-        <v>0.865162463820368</v>
+        <v>0.8651624638203695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009476857118472</v>
+        <v>1.009476857118473</v>
       </c>
       <c r="J22">
-        <v>0.9536543880524784</v>
+        <v>0.9536543880524807</v>
       </c>
       <c r="K22">
-        <v>0.9705654481564669</v>
+        <v>0.9705654481564691</v>
       </c>
       <c r="L22">
-        <v>0.9508512271740481</v>
+        <v>0.9508512271740502</v>
       </c>
       <c r="M22">
-        <v>0.8839792480163806</v>
+        <v>0.8839792480163822</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9240485798839861</v>
+        <v>0.9240485798839885</v>
       </c>
       <c r="D23">
-        <v>0.9580804005348784</v>
+        <v>0.9580804005348804</v>
       </c>
       <c r="E23">
-        <v>0.938299791999986</v>
+        <v>0.9382997919999885</v>
       </c>
       <c r="F23">
-        <v>0.8740990851210902</v>
+        <v>0.8740990851210925</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011734249064351</v>
+        <v>1.011734249064353</v>
       </c>
       <c r="J23">
-        <v>0.9577719237874665</v>
+        <v>0.9577719237874689</v>
       </c>
       <c r="K23">
-        <v>0.9741973664815545</v>
+        <v>0.9741973664815569</v>
       </c>
       <c r="L23">
-        <v>0.9548573764436129</v>
+        <v>0.9548573764436156</v>
       </c>
       <c r="M23">
-        <v>0.8922747654338558</v>
+        <v>0.892274765433858</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,19 +1254,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9429094655340677</v>
+        <v>0.9429094655340684</v>
       </c>
       <c r="D24">
-        <v>0.9729089984256811</v>
+        <v>0.9729089984256816</v>
       </c>
       <c r="E24">
-        <v>0.9546046574843321</v>
+        <v>0.9546046574843328</v>
       </c>
       <c r="F24">
-        <v>0.905569138645902</v>
+        <v>0.9055691386459017</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.019869394151173</v>
       </c>
       <c r="J24">
-        <v>0.9727972270184757</v>
+        <v>0.9727972270184765</v>
       </c>
       <c r="K24">
-        <v>0.9874291727933686</v>
+        <v>0.9874291727933691</v>
       </c>
       <c r="L24">
-        <v>0.9694787945084673</v>
+        <v>0.9694787945084679</v>
       </c>
       <c r="M24">
         <v>0.9214857428789072</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9624684980911767</v>
+        <v>0.9624684980911754</v>
       </c>
       <c r="D25">
-        <v>0.9882916317183499</v>
+        <v>0.9882916317183482</v>
       </c>
       <c r="E25">
-        <v>0.9715345496575847</v>
+        <v>0.9715345496575837</v>
       </c>
       <c r="F25">
-        <v>0.9366393055222364</v>
+        <v>0.9366393055222352</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.028121102736584</v>
       </c>
       <c r="J25">
-        <v>0.9883285008753528</v>
+        <v>0.9883285008753517</v>
       </c>
       <c r="K25">
-        <v>1.001074465553718</v>
+        <v>1.001074465553717</v>
       </c>
       <c r="L25">
-        <v>0.9845914357623022</v>
+        <v>0.9845914357623012</v>
       </c>
       <c r="M25">
-        <v>0.9503078803037732</v>
+        <v>0.950307880303772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9766534183273645</v>
+        <v>0.9766534183273652</v>
       </c>
       <c r="D2">
-        <v>0.9994513415376706</v>
+        <v>0.9994513415376711</v>
       </c>
       <c r="E2">
-        <v>0.9838219414526869</v>
+        <v>0.9838219414526873</v>
       </c>
       <c r="F2">
-        <v>0.9584133983881685</v>
+        <v>0.9584133983881692</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.033987707141404</v>
       </c>
       <c r="J2">
-        <v>0.9995555728255956</v>
+        <v>0.9995555728255962</v>
       </c>
       <c r="K2">
         <v>1.010918325339827</v>
       </c>
       <c r="L2">
-        <v>0.9955113603475929</v>
+        <v>0.9955113603475935</v>
       </c>
       <c r="M2">
-        <v>0.9704842015871562</v>
+        <v>0.9704842015871569</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862925100093936</v>
+        <v>0.9862925100093933</v>
       </c>
       <c r="D3">
         <v>1.007035602565211</v>
       </c>
       <c r="E3">
-        <v>0.9921739378225894</v>
+        <v>0.9921739378225892</v>
       </c>
       <c r="F3">
-        <v>0.9729128566604095</v>
+        <v>0.9729128566604097</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.037914285620308</v>
       </c>
       <c r="J3">
-        <v>1.007163960563326</v>
+        <v>1.007163960563325</v>
       </c>
       <c r="K3">
         <v>1.017579246122568</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922647636479135</v>
+        <v>0.9922647636479144</v>
       </c>
       <c r="D4">
         <v>1.011734628864779</v>
       </c>
       <c r="E4">
-        <v>0.9973490025814787</v>
+        <v>0.9973490025814796</v>
       </c>
       <c r="F4">
-        <v>0.9817909284590051</v>
+        <v>0.981790928459006</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.040321116557944</v>
       </c>
       <c r="J4">
-        <v>1.011868428844482</v>
+        <v>1.011868428844483</v>
       </c>
       <c r="K4">
-        <v>1.021693460616292</v>
+        <v>1.021693460616293</v>
       </c>
       <c r="L4">
-        <v>1.007479528460465</v>
+        <v>1.007479528460466</v>
       </c>
       <c r="M4">
-        <v>0.99211420525549</v>
+        <v>0.992114205255491</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9947172139488535</v>
+        <v>0.9947172139488529</v>
       </c>
       <c r="D5">
         <v>1.013664144312429</v>
       </c>
       <c r="E5">
-        <v>0.9994740570988244</v>
+        <v>0.999474057098824</v>
       </c>
       <c r="F5">
-        <v>0.9854149580460086</v>
+        <v>0.985414958046009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041303397052132</v>
+        <v>1.041303397052131</v>
       </c>
       <c r="J5">
-        <v>1.013797964318781</v>
+        <v>1.01379796431878</v>
       </c>
       <c r="K5">
-        <v>1.023379868942716</v>
+        <v>1.023379868942715</v>
       </c>
       <c r="L5">
-        <v>1.009354074261483</v>
+        <v>1.009354074261482</v>
       </c>
       <c r="M5">
-        <v>0.995463548381269</v>
+        <v>0.9954635483812692</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.995125709572205</v>
+        <v>0.9951257095722045</v>
       </c>
       <c r="D6">
         <v>1.013985528717203</v>
       </c>
       <c r="E6">
-        <v>0.9998280145653476</v>
+        <v>0.9998280145653475</v>
       </c>
       <c r="F6">
-        <v>0.986017418103787</v>
+        <v>0.9860174181037875</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.041466659641815</v>
       </c>
       <c r="J6">
-        <v>1.014119223574947</v>
+        <v>1.014119223574946</v>
       </c>
       <c r="K6">
-        <v>1.023660588187928</v>
+        <v>1.023660588187927</v>
       </c>
       <c r="L6">
         <v>1.009666148594137</v>
       </c>
       <c r="M6">
-        <v>0.9960202327205846</v>
+        <v>0.996020232720585</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922977561663903</v>
+        <v>0.9922977561663923</v>
       </c>
       <c r="D7">
-        <v>1.011760586886144</v>
+        <v>1.011760586886146</v>
       </c>
       <c r="E7">
-        <v>0.9973775909633952</v>
+        <v>0.9973775909633972</v>
       </c>
       <c r="F7">
-        <v>0.9818397637203338</v>
+        <v>0.9818397637203351</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040334354905715</v>
+        <v>1.040334354905716</v>
       </c>
       <c r="J7">
-        <v>1.011894395839031</v>
+        <v>1.011894395839033</v>
       </c>
       <c r="K7">
-        <v>1.021716159777402</v>
+        <v>1.021716159777403</v>
       </c>
       <c r="L7">
-        <v>1.007504757391317</v>
+        <v>1.007504757391319</v>
       </c>
       <c r="M7">
-        <v>0.9921593465205155</v>
+        <v>0.9921593465205168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9799691622205389</v>
+        <v>0.9799691622205404</v>
       </c>
       <c r="D8">
-        <v>1.002060216204508</v>
+        <v>1.00206021620451</v>
       </c>
       <c r="E8">
-        <v>0.9866948104246467</v>
+        <v>0.9866948104246478</v>
       </c>
       <c r="F8">
-        <v>0.9634260769364719</v>
+        <v>0.9634260769364744</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035344079449295</v>
+        <v>1.035344079449296</v>
       </c>
       <c r="J8">
-        <v>1.002174814166902</v>
+        <v>1.002174814166903</v>
       </c>
       <c r="K8">
-        <v>1.013212352686639</v>
+        <v>1.013212352686641</v>
       </c>
       <c r="L8">
-        <v>0.9980580770871268</v>
+        <v>0.9980580770871277</v>
       </c>
       <c r="M8">
-        <v>0.9751253652285998</v>
+        <v>0.9751253652286022</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9559389331020292</v>
+        <v>0.9559389331020314</v>
       </c>
       <c r="D9">
-        <v>0.9831555873423892</v>
+        <v>0.9831555873423911</v>
       </c>
       <c r="E9">
-        <v>0.965880715197228</v>
+        <v>0.9658807151972298</v>
       </c>
       <c r="F9">
-        <v>0.9264156050669341</v>
+        <v>0.9264156050669364</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02538697553335</v>
+        <v>1.025386975533351</v>
       </c>
       <c r="J9">
-        <v>0.9831496496136554</v>
+        <v>0.9831496496136573</v>
       </c>
       <c r="K9">
-        <v>0.9965279961461773</v>
+        <v>0.996527996146179</v>
       </c>
       <c r="L9">
-        <v>0.9795527230241685</v>
+        <v>0.9795527230241704</v>
       </c>
       <c r="M9">
-        <v>0.9408271457215471</v>
+        <v>0.9408271457215494</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.9378793883290477</v>
       </c>
       <c r="D10">
-        <v>0.9689539817284046</v>
+        <v>0.9689539817284049</v>
       </c>
       <c r="E10">
         <v>0.9502539923878605</v>
       </c>
       <c r="F10">
-        <v>0.897341019545642</v>
+        <v>0.8973410195456425</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1.01771725520952</v>
       </c>
       <c r="J10">
-        <v>0.9687945272030861</v>
+        <v>0.9687945272030862</v>
       </c>
       <c r="K10">
         <v>0.9839073568635962</v>
@@ -752,7 +752,7 @@
         <v>0.9655835242892163</v>
       </c>
       <c r="M10">
-        <v>0.9138491594924522</v>
+        <v>0.9138491594924525</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9294225694893785</v>
+        <v>0.929422569489379</v>
       </c>
       <c r="D11">
-        <v>0.9623052420334534</v>
+        <v>0.9623052420334539</v>
       </c>
       <c r="E11">
-        <v>0.9429430558514154</v>
+        <v>0.9429430558514158</v>
       </c>
       <c r="F11">
-        <v>0.8832460468729567</v>
+        <v>0.8832460468729569</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.014070625290251</v>
       </c>
       <c r="J11">
-        <v>0.9620576608684401</v>
+        <v>0.9620576608684405</v>
       </c>
       <c r="K11">
-        <v>0.9779748454094569</v>
+        <v>0.9779748454094573</v>
       </c>
       <c r="L11">
-        <v>0.9590276362560206</v>
+        <v>0.9590276362560211</v>
       </c>
       <c r="M11">
-        <v>0.9007657398303476</v>
+        <v>0.9007657398303477</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9261676004357619</v>
+        <v>0.9261676004357625</v>
       </c>
       <c r="D12">
-        <v>0.9597463000783885</v>
+        <v>0.9597463000783892</v>
       </c>
       <c r="E12">
-        <v>0.9401304311452053</v>
+        <v>0.9401304311452062</v>
       </c>
       <c r="F12">
-        <v>0.8777247398853668</v>
+        <v>0.8777247398853676</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.012657322959131</v>
       </c>
       <c r="J12">
-        <v>0.9594622718976196</v>
+        <v>0.9594622718976201</v>
       </c>
       <c r="K12">
-        <v>0.9756875831195616</v>
+        <v>0.9756875831195624</v>
       </c>
       <c r="L12">
-        <v>0.9565021324248072</v>
+        <v>0.9565021324248076</v>
       </c>
       <c r="M12">
-        <v>0.8956404027230672</v>
+        <v>0.8956404027230682</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9268713021296797</v>
+        <v>0.9268713021296793</v>
       </c>
       <c r="D13">
-        <v>0.9602995243520271</v>
+        <v>0.9602995243520267</v>
       </c>
       <c r="E13">
-        <v>0.9407384370217298</v>
+        <v>0.9407384370217291</v>
       </c>
       <c r="F13">
-        <v>0.8789232452374434</v>
+        <v>0.878923245237443</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012963338517824</v>
+        <v>1.012963338517823</v>
       </c>
       <c r="J13">
-        <v>0.9600234905785294</v>
+        <v>0.960023490578529</v>
       </c>
       <c r="K13">
-        <v>0.9761822589454263</v>
+        <v>0.9761822589454259</v>
       </c>
       <c r="L13">
-        <v>0.9570482282074578</v>
+        <v>0.9570482282074572</v>
       </c>
       <c r="M13">
-        <v>0.8967529582700362</v>
+        <v>0.8967529582700356</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.929155957755769</v>
+        <v>0.9291559577557678</v>
       </c>
       <c r="D14">
-        <v>0.9620956403378899</v>
+        <v>0.9620956403378886</v>
       </c>
       <c r="E14">
-        <v>0.9427126479853468</v>
+        <v>0.9427126479853456</v>
       </c>
       <c r="F14">
-        <v>0.8827959183249515</v>
+        <v>0.8827959183249505</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013955070106104</v>
+        <v>1.013955070106103</v>
       </c>
       <c r="J14">
-        <v>0.9618451251786655</v>
+        <v>0.9618451251786642</v>
       </c>
       <c r="K14">
-        <v>0.9777875797536</v>
+        <v>0.9777875797535988</v>
       </c>
       <c r="L14">
-        <v>0.9588208188202273</v>
+        <v>0.9588208188202262</v>
       </c>
       <c r="M14">
-        <v>0.9003478952909807</v>
+        <v>0.9003478952909797</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.93054790266212</v>
+        <v>0.9305479026621211</v>
       </c>
       <c r="D15">
-        <v>0.963189946658973</v>
+        <v>0.9631899466589738</v>
       </c>
       <c r="E15">
-        <v>0.9439156317272096</v>
+        <v>0.9439156317272106</v>
       </c>
       <c r="F15">
-        <v>0.8851419273603449</v>
+        <v>0.8851419273603464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014557965190037</v>
+        <v>1.014557965190038</v>
       </c>
       <c r="J15">
-        <v>0.9629546470611301</v>
+        <v>0.962954647061131</v>
       </c>
       <c r="K15">
-        <v>0.9787651090121094</v>
+        <v>0.9787651090121102</v>
       </c>
       <c r="L15">
-        <v>0.9599004969710745</v>
+        <v>0.9599004969710754</v>
       </c>
       <c r="M15">
-        <v>0.9025256364877897</v>
+        <v>0.902525636487791</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9384258026516614</v>
+        <v>0.9384258026516591</v>
       </c>
       <c r="D16">
-        <v>0.9693835964450318</v>
+        <v>0.9693835964450301</v>
       </c>
       <c r="E16">
-        <v>0.9507265281265723</v>
+        <v>0.9507265281265702</v>
       </c>
       <c r="F16">
-        <v>0.8982401677988916</v>
+        <v>0.8982401677988893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0179516424121</v>
+        <v>1.017951642412099</v>
       </c>
       <c r="J16">
-        <v>0.9692294971779074</v>
+        <v>0.9692294971779055</v>
       </c>
       <c r="K16">
-        <v>0.9842901749710009</v>
+        <v>0.9842901749709994</v>
       </c>
       <c r="L16">
-        <v>0.966006820025085</v>
+        <v>0.966006820025083</v>
       </c>
       <c r="M16">
-        <v>0.9146837140645788</v>
+        <v>0.9146837140645764</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9431857527413932</v>
+        <v>0.9431857527413967</v>
       </c>
       <c r="D17">
-        <v>0.9731262462418395</v>
+        <v>0.9731262462418424</v>
       </c>
       <c r="E17">
-        <v>0.9548436700562067</v>
+        <v>0.9548436700562098</v>
       </c>
       <c r="F17">
-        <v>0.906017976056481</v>
+        <v>0.9060179760564846</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019987246385374</v>
+        <v>1.019987246385376</v>
       </c>
       <c r="J17">
-        <v>0.9730169875180151</v>
+        <v>0.9730169875180186</v>
       </c>
       <c r="K17">
-        <v>0.9876224688017686</v>
+        <v>0.9876224688017716</v>
       </c>
       <c r="L17">
-        <v>0.9696926556630799</v>
+        <v>0.9696926556630832</v>
       </c>
       <c r="M17">
-        <v>0.9219022807768662</v>
+        <v>0.9219022807768694</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,22 +1029,22 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9459021492484972</v>
+        <v>0.9459021492484974</v>
       </c>
       <c r="D18">
         <v>0.9752622434926289</v>
       </c>
       <c r="E18">
-        <v>0.9571938208397986</v>
+        <v>0.9571938208397988</v>
       </c>
       <c r="F18">
-        <v>0.9104143474384606</v>
+        <v>0.9104143474384593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021143969465377</v>
+        <v>1.021143969465376</v>
       </c>
       <c r="J18">
         <v>0.9751770858187494</v>
@@ -1056,7 +1056,7 @@
         <v>0.9717947509132902</v>
       </c>
       <c r="M18">
-        <v>0.9259820725702742</v>
+        <v>0.9259820725702729</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9468186565487415</v>
+        <v>0.9468186565487421</v>
       </c>
       <c r="D19">
-        <v>0.9759829518758243</v>
+        <v>0.9759829518758245</v>
       </c>
       <c r="E19">
-        <v>0.9579868497531342</v>
+        <v>0.9579868497531345</v>
       </c>
       <c r="F19">
-        <v>0.9118910559131468</v>
+        <v>0.9118910559131466</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.021533438679844</v>
       </c>
       <c r="J19">
-        <v>0.9759056762262884</v>
+        <v>0.975905676226289</v>
       </c>
       <c r="K19">
-        <v>0.9901626925168633</v>
+        <v>0.9901626925168636</v>
       </c>
       <c r="L19">
-        <v>0.9725037684430391</v>
+        <v>0.9725037684430395</v>
       </c>
       <c r="M19">
         <v>0.9273523544080888</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9426813746649303</v>
+        <v>0.9426813746649305</v>
       </c>
       <c r="D20">
-        <v>0.9727296488167666</v>
+        <v>0.9727296488167668</v>
       </c>
       <c r="E20">
-        <v>0.9544073422777036</v>
+        <v>0.954407342277704</v>
       </c>
       <c r="F20">
-        <v>0.9051983601376955</v>
+        <v>0.9051983601376947</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.019772072395213</v>
       </c>
       <c r="J20">
-        <v>0.9726157945850129</v>
+        <v>0.9726157945850131</v>
       </c>
       <c r="K20">
         <v>0.9872695843583844</v>
       </c>
       <c r="L20">
-        <v>0.9693022323494689</v>
+        <v>0.9693022323494692</v>
       </c>
       <c r="M20">
-        <v>0.9211416438154045</v>
+        <v>0.9211416438154038</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9284864968899246</v>
+        <v>0.9284864968899291</v>
       </c>
       <c r="D21">
-        <v>0.961569332490554</v>
+        <v>0.9615693324905576</v>
       </c>
       <c r="E21">
-        <v>0.9421341168394722</v>
+        <v>0.9421341168394766</v>
       </c>
       <c r="F21">
-        <v>0.881664005861944</v>
+        <v>0.8816640058619466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013664749453637</v>
+        <v>1.013664749453638</v>
       </c>
       <c r="J21">
-        <v>0.961311409380706</v>
+        <v>0.9613114093807106</v>
       </c>
       <c r="K21">
-        <v>0.9773172922522417</v>
+        <v>0.9773172922522455</v>
       </c>
       <c r="L21">
-        <v>0.9583014659717369</v>
+        <v>0.9583014659717414</v>
       </c>
       <c r="M21">
-        <v>0.8992971630363044</v>
+        <v>0.8992971630363067</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9188898410330912</v>
+        <v>0.9188898410330887</v>
       </c>
       <c r="D22">
-        <v>0.9540246727245217</v>
+        <v>0.9540246727245196</v>
       </c>
       <c r="E22">
-        <v>0.933844517945747</v>
+        <v>0.933844517945745</v>
       </c>
       <c r="F22">
-        <v>0.8651624638203695</v>
+        <v>0.865162463820368</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009476857118473</v>
+        <v>1.009476857118472</v>
       </c>
       <c r="J22">
-        <v>0.9536543880524807</v>
+        <v>0.9536543880524784</v>
       </c>
       <c r="K22">
-        <v>0.9705654481564691</v>
+        <v>0.9705654481564669</v>
       </c>
       <c r="L22">
-        <v>0.9508512271740502</v>
+        <v>0.9508512271740481</v>
       </c>
       <c r="M22">
-        <v>0.8839792480163822</v>
+        <v>0.8839792480163806</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9240485798839885</v>
+        <v>0.9240485798839861</v>
       </c>
       <c r="D23">
-        <v>0.9580804005348804</v>
+        <v>0.9580804005348784</v>
       </c>
       <c r="E23">
-        <v>0.9382997919999885</v>
+        <v>0.938299791999986</v>
       </c>
       <c r="F23">
-        <v>0.8740990851210925</v>
+        <v>0.8740990851210902</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011734249064353</v>
+        <v>1.011734249064351</v>
       </c>
       <c r="J23">
-        <v>0.9577719237874689</v>
+        <v>0.9577719237874665</v>
       </c>
       <c r="K23">
-        <v>0.9741973664815569</v>
+        <v>0.9741973664815545</v>
       </c>
       <c r="L23">
-        <v>0.9548573764436156</v>
+        <v>0.9548573764436129</v>
       </c>
       <c r="M23">
-        <v>0.892274765433858</v>
+        <v>0.8922747654338558</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,19 +1254,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9429094655340684</v>
+        <v>0.9429094655340677</v>
       </c>
       <c r="D24">
-        <v>0.9729089984256816</v>
+        <v>0.9729089984256811</v>
       </c>
       <c r="E24">
-        <v>0.9546046574843328</v>
+        <v>0.9546046574843321</v>
       </c>
       <c r="F24">
-        <v>0.9055691386459017</v>
+        <v>0.905569138645902</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.019869394151173</v>
       </c>
       <c r="J24">
-        <v>0.9727972270184765</v>
+        <v>0.9727972270184757</v>
       </c>
       <c r="K24">
-        <v>0.9874291727933691</v>
+        <v>0.9874291727933686</v>
       </c>
       <c r="L24">
-        <v>0.9694787945084679</v>
+        <v>0.9694787945084673</v>
       </c>
       <c r="M24">
         <v>0.9214857428789072</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9624684980911754</v>
+        <v>0.9624684980911767</v>
       </c>
       <c r="D25">
-        <v>0.9882916317183482</v>
+        <v>0.9882916317183499</v>
       </c>
       <c r="E25">
-        <v>0.9715345496575837</v>
+        <v>0.9715345496575847</v>
       </c>
       <c r="F25">
-        <v>0.9366393055222352</v>
+        <v>0.9366393055222364</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.028121102736584</v>
       </c>
       <c r="J25">
-        <v>0.9883285008753517</v>
+        <v>0.9883285008753528</v>
       </c>
       <c r="K25">
-        <v>1.001074465553717</v>
+        <v>1.001074465553718</v>
       </c>
       <c r="L25">
-        <v>0.9845914357623012</v>
+        <v>0.9845914357623022</v>
       </c>
       <c r="M25">
-        <v>0.950307880303772</v>
+        <v>0.9503078803037732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9766534183273652</v>
+        <v>0.9794366744114645</v>
       </c>
       <c r="D2">
-        <v>0.9994513415376711</v>
+        <v>1.001672284918433</v>
       </c>
       <c r="E2">
-        <v>0.9838219414526873</v>
+        <v>0.986222495565573</v>
       </c>
       <c r="F2">
-        <v>0.9584133983881692</v>
+        <v>0.9598140415612068</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033987707141404</v>
+        <v>1.035131466635553</v>
       </c>
       <c r="J2">
-        <v>0.9995555728255962</v>
+        <v>1.002250322128726</v>
       </c>
       <c r="K2">
-        <v>1.010918325339827</v>
+        <v>1.01310837121773</v>
       </c>
       <c r="L2">
-        <v>0.9955113603475935</v>
+        <v>0.9978771695751218</v>
       </c>
       <c r="M2">
-        <v>0.9704842015871569</v>
+        <v>0.9718631494919383</v>
+      </c>
+      <c r="N2">
+        <v>1.003673632545868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862925100093933</v>
+        <v>0.9890486118577196</v>
       </c>
       <c r="D3">
-        <v>1.007035602565211</v>
+        <v>1.009238174426452</v>
       </c>
       <c r="E3">
-        <v>0.9921739378225892</v>
+        <v>0.9945532786221425</v>
       </c>
       <c r="F3">
-        <v>0.9729128566604097</v>
+        <v>0.9742685744915884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037914285620308</v>
+        <v>1.039048100810074</v>
       </c>
       <c r="J3">
-        <v>1.007163960563325</v>
+        <v>1.00984234121375</v>
       </c>
       <c r="K3">
-        <v>1.017579246122568</v>
+        <v>1.019754200087019</v>
       </c>
       <c r="L3">
-        <v>1.00290794373207</v>
+        <v>1.005256328942401</v>
       </c>
       <c r="M3">
-        <v>0.9839044701281627</v>
+        <v>0.9852416363848958</v>
+      </c>
+      <c r="N3">
+        <v>1.01127643316881</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922647636479144</v>
+        <v>0.9950055165193802</v>
       </c>
       <c r="D4">
-        <v>1.011734628864779</v>
+        <v>1.013926910102589</v>
       </c>
       <c r="E4">
-        <v>0.9973490025814796</v>
+        <v>0.9997164344589357</v>
       </c>
       <c r="F4">
-        <v>0.981790928459006</v>
+        <v>0.9831215553411127</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040321116557944</v>
+        <v>1.041449457477646</v>
       </c>
       <c r="J4">
-        <v>1.011868428844483</v>
+        <v>1.01453785034602</v>
       </c>
       <c r="K4">
-        <v>1.021693460616293</v>
+        <v>1.023860105927567</v>
       </c>
       <c r="L4">
-        <v>1.007479528460466</v>
+        <v>1.009818283072126</v>
       </c>
       <c r="M4">
-        <v>0.992114205255491</v>
+        <v>0.9934280492715774</v>
+      </c>
+      <c r="N4">
+        <v>1.015978610462629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9947172139488529</v>
+        <v>0.9974519781265794</v>
       </c>
       <c r="D5">
-        <v>1.013664144312429</v>
+        <v>1.015852432405603</v>
       </c>
       <c r="E5">
-        <v>0.999474057098824</v>
+        <v>1.001836862400342</v>
       </c>
       <c r="F5">
-        <v>0.985414958046009</v>
+        <v>0.9867358377299196</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041303397052131</v>
+        <v>1.042429635776104</v>
       </c>
       <c r="J5">
-        <v>1.01379796431878</v>
+        <v>1.016463959283856</v>
       </c>
       <c r="K5">
-        <v>1.023379868942715</v>
+        <v>1.025543324694077</v>
       </c>
       <c r="L5">
-        <v>1.009354074261482</v>
+        <v>1.011689123503508</v>
       </c>
       <c r="M5">
-        <v>0.9954635483812692</v>
+        <v>0.9967683362711932</v>
+      </c>
+      <c r="N5">
+        <v>1.017907454696085</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9951257095722045</v>
+        <v>0.9978594937000951</v>
       </c>
       <c r="D6">
-        <v>1.013985528717203</v>
+        <v>1.016173164619407</v>
       </c>
       <c r="E6">
-        <v>0.9998280145653475</v>
+        <v>1.002190063916121</v>
       </c>
       <c r="F6">
-        <v>0.9860174181037875</v>
+        <v>0.9873367044222187</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041466659641815</v>
+        <v>1.042592556303367</v>
       </c>
       <c r="J6">
-        <v>1.014119223574946</v>
+        <v>1.016784661845446</v>
       </c>
       <c r="K6">
-        <v>1.023660588187927</v>
+        <v>1.025823525037264</v>
       </c>
       <c r="L6">
-        <v>1.009666148594137</v>
+        <v>1.012000594542045</v>
       </c>
       <c r="M6">
-        <v>0.996020232720585</v>
+        <v>0.9973235404717572</v>
+      </c>
+      <c r="N6">
+        <v>1.018228612692097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922977561663923</v>
+        <v>0.9950384272733367</v>
       </c>
       <c r="D7">
-        <v>1.011760586886146</v>
+        <v>1.013952813516677</v>
       </c>
       <c r="E7">
-        <v>0.9973775909633972</v>
+        <v>0.9997449595924401</v>
       </c>
       <c r="F7">
-        <v>0.9818397637203351</v>
+        <v>0.9831702573858735</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040334354905716</v>
+        <v>1.041462666988943</v>
       </c>
       <c r="J7">
-        <v>1.011894395839033</v>
+        <v>1.01456377027932</v>
       </c>
       <c r="K7">
-        <v>1.021716159777403</v>
+        <v>1.023882761330712</v>
       </c>
       <c r="L7">
-        <v>1.007504757391319</v>
+        <v>1.009843461201672</v>
       </c>
       <c r="M7">
-        <v>0.9921593465205168</v>
+        <v>0.9934730667478577</v>
+      </c>
+      <c r="N7">
+        <v>1.016004567205208</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9799691622205404</v>
+        <v>0.9827427360485431</v>
       </c>
       <c r="D8">
-        <v>1.00206021620451</v>
+        <v>1.004274587139976</v>
       </c>
       <c r="E8">
-        <v>0.9866948104246478</v>
+        <v>0.9890877821695141</v>
       </c>
       <c r="F8">
-        <v>0.9634260769364744</v>
+        <v>0.9648106096504089</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035344079449296</v>
+        <v>1.036484258636996</v>
       </c>
       <c r="J8">
-        <v>1.002174814166903</v>
+        <v>1.00486365945847</v>
       </c>
       <c r="K8">
-        <v>1.013212352686641</v>
+        <v>1.01539696608882</v>
       </c>
       <c r="L8">
-        <v>0.9980580770871277</v>
+        <v>1.000417623784531</v>
       </c>
       <c r="M8">
-        <v>0.9751253652286022</v>
+        <v>0.9764893277034588</v>
+      </c>
+      <c r="N8">
+        <v>1.006290681114373</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9559389331020314</v>
+        <v>0.9587914992788595</v>
       </c>
       <c r="D9">
-        <v>0.9831555873423911</v>
+        <v>0.9854241397646087</v>
       </c>
       <c r="E9">
-        <v>0.9658807151972298</v>
+        <v>0.9683359795562276</v>
       </c>
       <c r="F9">
-        <v>0.9264156050669364</v>
+        <v>0.927935461435328</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025386975533351</v>
+        <v>1.026557283315789</v>
       </c>
       <c r="J9">
-        <v>0.9831496496136573</v>
+        <v>0.9858883331494307</v>
       </c>
       <c r="K9">
-        <v>0.996527996146179</v>
+        <v>0.9987582113873933</v>
       </c>
       <c r="L9">
-        <v>0.9795527230241704</v>
+        <v>0.9819645606976868</v>
       </c>
       <c r="M9">
-        <v>0.9408271457215494</v>
+        <v>0.9423169921532415</v>
+      </c>
+      <c r="N9">
+        <v>0.9872884076654751</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9378793883290477</v>
+        <v>0.9408066654513059</v>
       </c>
       <c r="D10">
-        <v>0.9689539817284049</v>
+        <v>0.9712747254418986</v>
       </c>
       <c r="E10">
-        <v>0.9502539923878605</v>
+        <v>0.9527688009879013</v>
       </c>
       <c r="F10">
-        <v>0.8973410195456425</v>
+        <v>0.8989992262664805</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01771725520952</v>
+        <v>1.01891768621812</v>
       </c>
       <c r="J10">
-        <v>0.9687945272030862</v>
+        <v>0.9715829362161641</v>
       </c>
       <c r="K10">
-        <v>0.9839073568635962</v>
+        <v>0.9861827428524947</v>
       </c>
       <c r="L10">
-        <v>0.9655835242892163</v>
+        <v>0.9680466130568008</v>
       </c>
       <c r="M10">
-        <v>0.9138491594924525</v>
+        <v>0.915467602218957</v>
+      </c>
+      <c r="N10">
+        <v>0.9729626954277115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.929422569489379</v>
+        <v>0.9323903243901218</v>
       </c>
       <c r="D11">
-        <v>0.9623052420334539</v>
+        <v>0.9646545870530754</v>
       </c>
       <c r="E11">
-        <v>0.9429430558514158</v>
+        <v>0.945490295888424</v>
       </c>
       <c r="F11">
-        <v>0.8832460468729569</v>
+        <v>0.884984469287263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014070625290251</v>
+        <v>1.015287967433731</v>
       </c>
       <c r="J11">
-        <v>0.9620576608684405</v>
+        <v>0.9648737656580851</v>
       </c>
       <c r="K11">
-        <v>0.9779748454094573</v>
+        <v>0.9802753349297655</v>
       </c>
       <c r="L11">
-        <v>0.9590276362560211</v>
+        <v>0.9615189927369377</v>
       </c>
       <c r="M11">
-        <v>0.9007657398303477</v>
+        <v>0.9024586574920408</v>
+      </c>
+      <c r="N11">
+        <v>0.9662439970778876</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9261676004357625</v>
+        <v>0.929152003796423</v>
       </c>
       <c r="D12">
-        <v>0.9597463000783892</v>
+        <v>0.9621074724996777</v>
       </c>
       <c r="E12">
-        <v>0.9401304311452062</v>
+        <v>0.9426910393441829</v>
       </c>
       <c r="F12">
-        <v>0.8777247398853676</v>
+        <v>0.8794973650068468</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012657322959131</v>
+        <v>1.013881739753727</v>
       </c>
       <c r="J12">
-        <v>0.9594622718976201</v>
+        <v>0.9622898991493986</v>
       </c>
       <c r="K12">
-        <v>0.9756875831195624</v>
+        <v>0.9779985126463415</v>
       </c>
       <c r="L12">
-        <v>0.9565021324248076</v>
+        <v>0.9590052003407948</v>
       </c>
       <c r="M12">
-        <v>0.8956404027230682</v>
+        <v>0.8973650543191489</v>
+      </c>
+      <c r="N12">
+        <v>0.9636564611823846</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9268713021296793</v>
+        <v>0.9298520530019978</v>
       </c>
       <c r="D13">
-        <v>0.9602995243520267</v>
+        <v>0.962658098800827</v>
       </c>
       <c r="E13">
-        <v>0.9407384370217291</v>
+        <v>0.9432961110136486</v>
       </c>
       <c r="F13">
-        <v>0.878923245237443</v>
+        <v>0.8806883034699314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012963338517823</v>
+        <v>1.014186197234155</v>
       </c>
       <c r="J13">
-        <v>0.960023490578529</v>
+        <v>0.9628485837138645</v>
       </c>
       <c r="K13">
-        <v>0.9761822589454259</v>
+        <v>0.9784908924925465</v>
       </c>
       <c r="L13">
-        <v>0.9570482282074572</v>
+        <v>0.9595487227702298</v>
       </c>
       <c r="M13">
-        <v>0.8967529582700356</v>
+        <v>0.8984705902572382</v>
+      </c>
+      <c r="N13">
+        <v>0.9642159391430144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9291559577557678</v>
+        <v>0.9321250529872548</v>
       </c>
       <c r="D14">
-        <v>0.9620956403378886</v>
+        <v>0.964445936184894</v>
       </c>
       <c r="E14">
-        <v>0.9427126479853456</v>
+        <v>0.945260963660954</v>
       </c>
       <c r="F14">
-        <v>0.8827959183249505</v>
+        <v>0.8845370672737004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013955070106103</v>
+        <v>1.015172979234675</v>
       </c>
       <c r="J14">
-        <v>0.9618451251786642</v>
+        <v>0.9646621549011758</v>
       </c>
       <c r="K14">
-        <v>0.9777875797535988</v>
+        <v>0.9800889073588548</v>
       </c>
       <c r="L14">
-        <v>0.9588208188202262</v>
+        <v>0.9613131164157281</v>
       </c>
       <c r="M14">
-        <v>0.9003478952909797</v>
+        <v>0.902043343150511</v>
+      </c>
+      <c r="N14">
+        <v>0.9660320858094312</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9305479026621211</v>
+        <v>0.9335100450383765</v>
       </c>
       <c r="D15">
-        <v>0.9631899466589738</v>
+        <v>0.9655353127751665</v>
       </c>
       <c r="E15">
-        <v>0.9439156317272106</v>
+        <v>0.9464583687860693</v>
       </c>
       <c r="F15">
-        <v>0.8851419273603464</v>
+        <v>0.8868689831236144</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014557965190038</v>
+        <v>1.015772938021912</v>
       </c>
       <c r="J15">
-        <v>0.962954647061131</v>
+        <v>0.9657668840424987</v>
       </c>
       <c r="K15">
-        <v>0.9787651090121102</v>
+        <v>0.9810620937743413</v>
       </c>
       <c r="L15">
-        <v>0.9599004969710754</v>
+        <v>0.962387916014767</v>
       </c>
       <c r="M15">
-        <v>0.902525636487791</v>
+        <v>0.9042080051397605</v>
+      </c>
+      <c r="N15">
+        <v>0.9671383837928488</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9384258026516591</v>
+        <v>0.9413505943011775</v>
       </c>
       <c r="D16">
-        <v>0.9693835964450301</v>
+        <v>0.9717025911565033</v>
       </c>
       <c r="E16">
-        <v>0.9507265281265702</v>
+        <v>0.9532393488245885</v>
       </c>
       <c r="F16">
-        <v>0.8982401677988893</v>
+        <v>0.8998935778995786</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017951642412099</v>
+        <v>1.019151048368817</v>
       </c>
       <c r="J16">
-        <v>0.9692294971779055</v>
+        <v>0.9720162212638066</v>
       </c>
       <c r="K16">
-        <v>0.9842901749709994</v>
+        <v>0.9865640329643706</v>
       </c>
       <c r="L16">
-        <v>0.966006820025083</v>
+        <v>0.9684681833075065</v>
       </c>
       <c r="M16">
-        <v>0.9146837140645764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9162977013166518</v>
+      </c>
+      <c r="N16">
+        <v>0.9733965957898202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9431857527413967</v>
+        <v>0.9460895186321516</v>
       </c>
       <c r="D17">
-        <v>0.9731262462418424</v>
+        <v>0.975430479358251</v>
       </c>
       <c r="E17">
-        <v>0.9548436700562098</v>
+        <v>0.9573396917978467</v>
       </c>
       <c r="F17">
-        <v>0.9060179760564846</v>
+        <v>0.907631371523697</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019987246385376</v>
+        <v>1.021178043088917</v>
       </c>
       <c r="J17">
-        <v>0.9730169875180186</v>
+        <v>0.9757895363723679</v>
       </c>
       <c r="K17">
-        <v>0.9876224688017716</v>
+        <v>0.9898834664479724</v>
       </c>
       <c r="L17">
-        <v>0.9696926556630832</v>
+        <v>0.972139474005057</v>
       </c>
       <c r="M17">
-        <v>0.9219022807768694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9234790903896435</v>
+      </c>
+      <c r="N17">
+        <v>0.9771752694386407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9459021492484974</v>
+        <v>0.9487944022011936</v>
       </c>
       <c r="D18">
-        <v>0.9752622434926289</v>
+        <v>0.9775584198832876</v>
       </c>
       <c r="E18">
-        <v>0.9571938208397988</v>
+        <v>0.959680658182508</v>
       </c>
       <c r="F18">
-        <v>0.9104143474384593</v>
+        <v>0.9120062440130621</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021143969465376</v>
+        <v>1.022330099496977</v>
       </c>
       <c r="J18">
-        <v>0.9751770858187494</v>
+        <v>0.9779419350434537</v>
       </c>
       <c r="K18">
-        <v>0.9895220968297094</v>
+        <v>0.9917761041578583</v>
       </c>
       <c r="L18">
-        <v>0.9717947509132902</v>
+        <v>0.9742336463279061</v>
       </c>
       <c r="M18">
-        <v>0.9259820725702729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9275389012114277</v>
+      </c>
+      <c r="N18">
+        <v>0.9793307247627232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9468186565487421</v>
+        <v>0.9497071019539728</v>
       </c>
       <c r="D19">
-        <v>0.9759829518758245</v>
+        <v>0.9782764679118442</v>
       </c>
       <c r="E19">
-        <v>0.9579868497531345</v>
+        <v>0.96047065197049</v>
       </c>
       <c r="F19">
-        <v>0.9118910559131466</v>
+        <v>0.9134759041618122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021533438679844</v>
+        <v>1.022718032820602</v>
       </c>
       <c r="J19">
-        <v>0.975905676226289</v>
+        <v>0.9786679892297572</v>
       </c>
       <c r="K19">
-        <v>0.9901626925168636</v>
+        <v>0.992414396361017</v>
       </c>
       <c r="L19">
-        <v>0.9725037684430395</v>
+        <v>0.9749400504178337</v>
       </c>
       <c r="M19">
-        <v>0.9273523544080888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9289026314544403</v>
+      </c>
+      <c r="N19">
+        <v>0.9800578100292509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9426813746649305</v>
+        <v>0.945587316435522</v>
       </c>
       <c r="D20">
-        <v>0.9727296488167668</v>
+        <v>0.9750354067098733</v>
       </c>
       <c r="E20">
-        <v>0.954407342277704</v>
+        <v>0.9569051009731466</v>
       </c>
       <c r="F20">
-        <v>0.9051983601376947</v>
+        <v>0.9068158508874842</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019772072395213</v>
+        <v>1.020963754863411</v>
       </c>
       <c r="J20">
-        <v>0.9726157945850131</v>
+        <v>0.9753898036998434</v>
       </c>
       <c r="K20">
-        <v>0.9872695843583844</v>
+        <v>0.9895319073134896</v>
       </c>
       <c r="L20">
-        <v>0.9693022323494692</v>
+        <v>0.9717505514644528</v>
       </c>
       <c r="M20">
-        <v>0.9211416438154038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9227222590758171</v>
+      </c>
+      <c r="N20">
+        <v>0.9767749690998714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9284864968899291</v>
+        <v>0.931458975814082</v>
       </c>
       <c r="D21">
-        <v>0.9615693324905576</v>
+        <v>0.9639220297887728</v>
       </c>
       <c r="E21">
-        <v>0.9421341168394766</v>
+        <v>0.9446851484614521</v>
       </c>
       <c r="F21">
-        <v>0.8816640058619466</v>
+        <v>0.8834120588656008</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013664749453638</v>
+        <v>1.014884091953935</v>
       </c>
       <c r="J21">
-        <v>0.9613114093807106</v>
+        <v>0.9641307762537143</v>
       </c>
       <c r="K21">
-        <v>0.9773172922522455</v>
+        <v>0.9796207375152192</v>
       </c>
       <c r="L21">
-        <v>0.9583014659717414</v>
+        <v>0.9607961408086401</v>
       </c>
       <c r="M21">
-        <v>0.8992971630363067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9009990174321237</v>
+      </c>
+      <c r="N21">
+        <v>0.9654999525433404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9188898410330887</v>
+        <v>0.9219138432029055</v>
       </c>
       <c r="D22">
-        <v>0.9540246727245196</v>
+        <v>0.9564141262130296</v>
       </c>
       <c r="E22">
-        <v>0.933844517945745</v>
+        <v>0.9364369853545029</v>
       </c>
       <c r="F22">
-        <v>0.865162463820368</v>
+        <v>0.8670195140223395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009476857118472</v>
+        <v>1.010718384124195</v>
       </c>
       <c r="J22">
-        <v>0.9536543880524784</v>
+        <v>0.9565097032686687</v>
       </c>
       <c r="K22">
-        <v>0.9705654481564669</v>
+        <v>0.9729014653672947</v>
       </c>
       <c r="L22">
-        <v>0.9508512271740481</v>
+        <v>0.9533823310161584</v>
       </c>
       <c r="M22">
-        <v>0.8839792480163806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8857821761875165</v>
+      </c>
+      <c r="N22">
+        <v>0.9578680567605066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9240485798839861</v>
+        <v>0.9270441642403523</v>
       </c>
       <c r="D23">
-        <v>0.9580804005348784</v>
+        <v>0.9604495369609292</v>
       </c>
       <c r="E23">
-        <v>0.938299791999986</v>
+        <v>0.9408693871049015</v>
       </c>
       <c r="F23">
-        <v>0.8740990851210902</v>
+        <v>0.8758950999345341</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011734249064351</v>
+        <v>1.01296345643695</v>
       </c>
       <c r="J23">
-        <v>0.9577719237874665</v>
+        <v>0.9606073296742547</v>
       </c>
       <c r="K23">
-        <v>0.9741973664815545</v>
+        <v>0.9765153436187399</v>
       </c>
       <c r="L23">
-        <v>0.9548573764436129</v>
+        <v>0.9573683354815198</v>
       </c>
       <c r="M23">
-        <v>0.8922747654338558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8940211110935732</v>
+      </c>
+      <c r="N23">
+        <v>0.9619715022655929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9429094655340677</v>
+        <v>0.9458144218245603</v>
       </c>
       <c r="D24">
-        <v>0.9729089984256811</v>
+        <v>0.9752140656483247</v>
       </c>
       <c r="E24">
-        <v>0.9546046574843321</v>
+        <v>0.9571016294496179</v>
       </c>
       <c r="F24">
-        <v>0.905569138645902</v>
+        <v>0.9071847733155555</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019869394151173</v>
+        <v>1.02106067529802</v>
       </c>
       <c r="J24">
-        <v>0.9727972270184757</v>
+        <v>0.9755705745688614</v>
       </c>
       <c r="K24">
-        <v>0.9874291727933686</v>
+        <v>0.9896908953390763</v>
       </c>
       <c r="L24">
-        <v>0.9694787945084673</v>
+        <v>0.9719264337761147</v>
       </c>
       <c r="M24">
-        <v>0.9214857428789072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9230646333484251</v>
+      </c>
+      <c r="N24">
+        <v>0.9769559966842585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9624684980911767</v>
+        <v>0.9652974868685483</v>
       </c>
       <c r="D25">
-        <v>0.9882916317183499</v>
+        <v>0.9905438901636728</v>
       </c>
       <c r="E25">
-        <v>0.9715345496575847</v>
+        <v>0.9739711316254424</v>
       </c>
       <c r="F25">
-        <v>0.9366393055222364</v>
+        <v>0.9381177539515945</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028121102736584</v>
+        <v>1.029282214256721</v>
       </c>
       <c r="J25">
-        <v>0.9883285008753528</v>
+        <v>0.9910519538798476</v>
       </c>
       <c r="K25">
-        <v>1.001074465553718</v>
+        <v>1.003290795423355</v>
       </c>
       <c r="L25">
-        <v>0.9845914357623022</v>
+        <v>0.986987414425287</v>
       </c>
       <c r="M25">
-        <v>0.9503078803037732</v>
+        <v>0.9517592105100693</v>
+      </c>
+      <c r="N25">
+        <v>0.9924593613296046</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9794366744114645</v>
+        <v>0.9877921669109238</v>
       </c>
       <c r="D2">
-        <v>1.001672284918433</v>
+        <v>1.008688621828893</v>
       </c>
       <c r="E2">
-        <v>0.986222495565573</v>
-      </c>
-      <c r="F2">
-        <v>0.9598140415612068</v>
+        <v>0.9958524391454568</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035131466635553</v>
+        <v>1.040925694917978</v>
       </c>
       <c r="J2">
-        <v>1.002250322128726</v>
+        <v>1.010344245676663</v>
       </c>
       <c r="K2">
-        <v>1.01310837121773</v>
+        <v>1.020028223076104</v>
       </c>
       <c r="L2">
-        <v>0.9978771695751218</v>
-      </c>
-      <c r="M2">
-        <v>0.9718631494919383</v>
+        <v>1.007369860111445</v>
       </c>
       <c r="N2">
-        <v>1.003673632545868</v>
+        <v>1.011779050393629</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9890486118577196</v>
+        <v>0.9943292941618173</v>
       </c>
       <c r="D3">
-        <v>1.009238174426452</v>
+        <v>1.013649469528847</v>
       </c>
       <c r="E3">
-        <v>0.9945532786221425</v>
-      </c>
-      <c r="F3">
-        <v>0.9742685744915884</v>
+        <v>1.001193809157963</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039048100810074</v>
+        <v>1.042942836435921</v>
       </c>
       <c r="J3">
-        <v>1.00984234121375</v>
+        <v>1.014975751210651</v>
       </c>
       <c r="K3">
-        <v>1.019754200087019</v>
+        <v>1.024110631639323</v>
       </c>
       <c r="L3">
-        <v>1.005256328942401</v>
-      </c>
-      <c r="M3">
-        <v>0.9852416363848958</v>
+        <v>1.011811437728669</v>
       </c>
       <c r="N3">
-        <v>1.01127643316881</v>
+        <v>1.016417133196716</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9950055165193802</v>
+        <v>0.9984387855582062</v>
       </c>
       <c r="D4">
-        <v>1.013926910102589</v>
+        <v>1.016767778649547</v>
       </c>
       <c r="E4">
-        <v>0.9997164344589357</v>
-      </c>
-      <c r="F4">
-        <v>0.9831215553411127</v>
+        <v>1.004558554583024</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041449457477646</v>
+        <v>1.044193800902926</v>
       </c>
       <c r="J4">
-        <v>1.01453785034602</v>
+        <v>1.017882511847862</v>
       </c>
       <c r="K4">
-        <v>1.023860105927567</v>
+        <v>1.026667957383698</v>
       </c>
       <c r="L4">
-        <v>1.009818283072126</v>
-      </c>
-      <c r="M4">
-        <v>0.9934280492715774</v>
+        <v>1.014602271467789</v>
       </c>
       <c r="N4">
-        <v>1.015978610462629</v>
+        <v>1.019328021767442</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9974519781265794</v>
+        <v>1.000139012423805</v>
       </c>
       <c r="D5">
-        <v>1.015852432405603</v>
+        <v>1.018057748972702</v>
       </c>
       <c r="E5">
-        <v>1.001836862400342</v>
-      </c>
-      <c r="F5">
-        <v>0.9867358377299196</v>
+        <v>1.005952244321373</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042429635776104</v>
+        <v>1.044707185046142</v>
       </c>
       <c r="J5">
-        <v>1.016463959283856</v>
+        <v>1.019083918320403</v>
       </c>
       <c r="K5">
-        <v>1.025543324694077</v>
+        <v>1.027723748733713</v>
       </c>
       <c r="L5">
-        <v>1.011689123503508</v>
-      </c>
-      <c r="M5">
-        <v>0.9967683362711932</v>
+        <v>1.015756546534425</v>
       </c>
       <c r="N5">
-        <v>1.017907454696085</v>
+        <v>1.020531134374977</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9978594937000951</v>
+        <v>1.000422920800577</v>
       </c>
       <c r="D6">
-        <v>1.016173164619407</v>
+        <v>1.018273138423827</v>
       </c>
       <c r="E6">
-        <v>1.002190063916121</v>
-      </c>
-      <c r="F6">
-        <v>0.9873367044222187</v>
+        <v>1.006185057463081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042592556303367</v>
+        <v>1.0447926632189</v>
       </c>
       <c r="J6">
-        <v>1.016784661845446</v>
+        <v>1.019284459205688</v>
       </c>
       <c r="K6">
-        <v>1.025823525037264</v>
+        <v>1.027899912438718</v>
       </c>
       <c r="L6">
-        <v>1.012000594542045</v>
-      </c>
-      <c r="M6">
-        <v>0.9973235404717572</v>
+        <v>1.015949266155063</v>
       </c>
       <c r="N6">
-        <v>1.018228612692097</v>
+        <v>1.020731960051322</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9950384272733367</v>
+        <v>0.9984616099296151</v>
       </c>
       <c r="D7">
-        <v>1.013952813516677</v>
+        <v>1.0167850964331</v>
       </c>
       <c r="E7">
-        <v>0.9997449595924401</v>
-      </c>
-      <c r="F7">
-        <v>0.9831702573858735</v>
+        <v>1.004577257724087</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041462666988943</v>
+        <v>1.044200709372719</v>
       </c>
       <c r="J7">
-        <v>1.01456377027932</v>
+        <v>1.017898644781841</v>
       </c>
       <c r="K7">
-        <v>1.023882761330712</v>
+        <v>1.026682139691567</v>
       </c>
       <c r="L7">
-        <v>1.009843461201672</v>
-      </c>
-      <c r="M7">
-        <v>0.9934730667478577</v>
+        <v>1.014617768407016</v>
       </c>
       <c r="N7">
-        <v>1.016004567205208</v>
+        <v>1.019344177612037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9827427360485431</v>
+        <v>0.9900272638604917</v>
       </c>
       <c r="D8">
-        <v>1.004274587139976</v>
+        <v>1.010384765133425</v>
       </c>
       <c r="E8">
-        <v>0.9890877821695141</v>
-      </c>
-      <c r="F8">
-        <v>0.9648106096504089</v>
+        <v>0.9976771793357666</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036484258636996</v>
+        <v>1.041618926326788</v>
       </c>
       <c r="J8">
-        <v>1.00486365945847</v>
+        <v>1.011928762851074</v>
       </c>
       <c r="K8">
-        <v>1.01539696608882</v>
+        <v>1.021425881848524</v>
       </c>
       <c r="L8">
-        <v>1.000417623784531</v>
-      </c>
-      <c r="M8">
-        <v>0.9764893277034588</v>
+        <v>1.008888706907856</v>
       </c>
       <c r="N8">
-        <v>1.006290681114373</v>
+        <v>1.013365817764174</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9587914992788595</v>
+        <v>0.9741713573908958</v>
       </c>
       <c r="D9">
-        <v>0.9854241397646087</v>
+        <v>0.9983558993800901</v>
       </c>
       <c r="E9">
-        <v>0.9683359795562276</v>
-      </c>
-      <c r="F9">
-        <v>0.927935461435328</v>
+        <v>0.9847660528255574</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026557283315789</v>
+        <v>1.036630806192476</v>
       </c>
       <c r="J9">
-        <v>0.9858883331494307</v>
+        <v>1.000670360083814</v>
       </c>
       <c r="K9">
-        <v>0.9987582113873933</v>
+        <v>1.011475707408558</v>
       </c>
       <c r="L9">
-        <v>0.9819645606976868</v>
-      </c>
-      <c r="M9">
-        <v>0.9423169921532415</v>
+        <v>0.9981112222615095</v>
       </c>
       <c r="N9">
-        <v>0.9872884076654751</v>
+        <v>1.002091426773628</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9408066654513059</v>
+        <v>0.9628224312340967</v>
       </c>
       <c r="D10">
-        <v>0.9712747254418986</v>
+        <v>0.989756833799133</v>
       </c>
       <c r="E10">
-        <v>0.9527688009879013</v>
-      </c>
-      <c r="F10">
-        <v>0.8989992262664805</v>
+        <v>0.9755726213390674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01891768621812</v>
+        <v>1.032974520072043</v>
       </c>
       <c r="J10">
-        <v>0.9715829362161641</v>
+        <v>0.992592888750401</v>
       </c>
       <c r="K10">
-        <v>0.9861827428524947</v>
+        <v>1.004313527863595</v>
       </c>
       <c r="L10">
-        <v>0.9680466130568008</v>
-      </c>
-      <c r="M10">
-        <v>0.915467602218957</v>
+        <v>0.9903973849782438</v>
       </c>
       <c r="N10">
-        <v>0.9729626954277115</v>
+        <v>0.994002484504422</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9323903243901218</v>
+        <v>0.9576951321125705</v>
       </c>
       <c r="D11">
-        <v>0.9646545870530754</v>
+        <v>0.9858765249902413</v>
       </c>
       <c r="E11">
-        <v>0.945490295888424</v>
-      </c>
-      <c r="F11">
-        <v>0.884984469287263</v>
+        <v>0.9714321618748213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015287967433731</v>
+        <v>1.031303586868911</v>
       </c>
       <c r="J11">
-        <v>0.9648737656580851</v>
+        <v>0.9889402559620906</v>
       </c>
       <c r="K11">
-        <v>0.9802753349297655</v>
+        <v>1.001069796568596</v>
       </c>
       <c r="L11">
-        <v>0.9615189927369377</v>
-      </c>
-      <c r="M11">
-        <v>0.9024586574920408</v>
+        <v>0.9869137126391629</v>
       </c>
       <c r="N11">
-        <v>0.9662439970778876</v>
+        <v>0.9903446645585897</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.929152003796423</v>
+        <v>0.9557558311557663</v>
       </c>
       <c r="D12">
-        <v>0.9621074724996777</v>
+        <v>0.9844097700253943</v>
       </c>
       <c r="E12">
-        <v>0.9426910393441829</v>
-      </c>
-      <c r="F12">
-        <v>0.8794973650068468</v>
+        <v>0.9698682283766847</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013881739753727</v>
+        <v>1.030668849742805</v>
       </c>
       <c r="J12">
-        <v>0.9622898991493986</v>
+        <v>0.9875583337559399</v>
       </c>
       <c r="K12">
-        <v>0.9779985126463415</v>
+        <v>0.9998418759574647</v>
       </c>
       <c r="L12">
-        <v>0.9590052003407948</v>
-      </c>
-      <c r="M12">
-        <v>0.8973650543191489</v>
+        <v>0.9855964053876316</v>
       </c>
       <c r="N12">
-        <v>0.9636564611823846</v>
+        <v>0.9889607798643975</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9298520530019978</v>
+        <v>0.956173440434983</v>
       </c>
       <c r="D13">
-        <v>0.962658098800827</v>
+        <v>0.9847255773477975</v>
       </c>
       <c r="E13">
-        <v>0.9432961110136486</v>
-      </c>
-      <c r="F13">
-        <v>0.8806883034699314</v>
+        <v>0.9702049078142604</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014186197234155</v>
+        <v>1.030805655615677</v>
       </c>
       <c r="J13">
-        <v>0.9628485837138645</v>
+        <v>0.9878559324368719</v>
       </c>
       <c r="K13">
-        <v>0.9784908924925465</v>
+        <v>1.000106340984296</v>
       </c>
       <c r="L13">
-        <v>0.9595487227702298</v>
-      </c>
-      <c r="M13">
-        <v>0.8984705902572382</v>
+        <v>0.9858800577619794</v>
       </c>
       <c r="N13">
-        <v>0.9642159391430144</v>
+        <v>0.9892588011695914</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9321250529872548</v>
+        <v>0.9575355558842197</v>
       </c>
       <c r="D14">
-        <v>0.964445936184894</v>
+        <v>0.9857558130251952</v>
       </c>
       <c r="E14">
-        <v>0.945260963660954</v>
-      </c>
-      <c r="F14">
-        <v>0.8845370672737004</v>
+        <v>0.9713034290599689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015172979234675</v>
+        <v>1.031251412045307</v>
       </c>
       <c r="J14">
-        <v>0.9646621549011758</v>
+        <v>0.9888265509925441</v>
       </c>
       <c r="K14">
-        <v>0.9800889073588548</v>
+        <v>1.000968776804997</v>
       </c>
       <c r="L14">
-        <v>0.9613131164157281</v>
-      </c>
-      <c r="M14">
-        <v>0.902043343150511</v>
+        <v>0.9868053101188689</v>
       </c>
       <c r="N14">
-        <v>0.9660320858094312</v>
+        <v>0.9902307981149443</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9335100450383765</v>
+        <v>0.9583701011113961</v>
       </c>
       <c r="D15">
-        <v>0.9655353127751665</v>
+        <v>0.9863871451851711</v>
       </c>
       <c r="E15">
-        <v>0.9464583687860693</v>
-      </c>
-      <c r="F15">
-        <v>0.8868689831236144</v>
+        <v>0.9719767576179482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015772938021912</v>
+        <v>1.031524163218034</v>
       </c>
       <c r="J15">
-        <v>0.9657668840424987</v>
+        <v>0.9894211856515506</v>
       </c>
       <c r="K15">
-        <v>0.9810620937743413</v>
+        <v>1.001497044387833</v>
       </c>
       <c r="L15">
-        <v>0.962387916014767</v>
-      </c>
-      <c r="M15">
-        <v>0.9042080051397605</v>
+        <v>0.9873722431086036</v>
       </c>
       <c r="N15">
-        <v>0.9671383837928488</v>
+        <v>0.9908262772233721</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9413505943011775</v>
+        <v>0.9631579933698438</v>
       </c>
       <c r="D16">
-        <v>0.9717025911565033</v>
+        <v>0.9900108975669166</v>
       </c>
       <c r="E16">
-        <v>0.9532393488245885</v>
-      </c>
-      <c r="F16">
-        <v>0.8998935778995786</v>
+        <v>0.9758438811421456</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019151048368817</v>
+        <v>1.033083491672511</v>
       </c>
       <c r="J16">
-        <v>0.9720162212638066</v>
+        <v>0.9928318800430759</v>
       </c>
       <c r="K16">
-        <v>0.9865640329643706</v>
+        <v>1.004525665490434</v>
       </c>
       <c r="L16">
-        <v>0.9684681833075065</v>
-      </c>
-      <c r="M16">
-        <v>0.9162977013166518</v>
+        <v>0.9906254158077137</v>
       </c>
       <c r="N16">
-        <v>0.9733965957898202</v>
+        <v>0.9942418151921454</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9460895186321516</v>
+        <v>0.966102391607614</v>
       </c>
       <c r="D17">
-        <v>0.975430479358251</v>
+        <v>0.9922407323408814</v>
       </c>
       <c r="E17">
-        <v>0.9573396917978467</v>
-      </c>
-      <c r="F17">
-        <v>0.907631371523697</v>
+        <v>0.9782255444204414</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021178043088917</v>
+        <v>1.034037526021447</v>
       </c>
       <c r="J17">
-        <v>0.9757895363723679</v>
+        <v>0.9949285512460649</v>
       </c>
       <c r="K17">
-        <v>0.9898834664479724</v>
+        <v>1.006386191313085</v>
       </c>
       <c r="L17">
-        <v>0.972139474005057</v>
-      </c>
-      <c r="M17">
-        <v>0.9234790903896435</v>
+        <v>0.9926264428727064</v>
       </c>
       <c r="N17">
-        <v>0.9771752694386407</v>
+        <v>0.9963414639087342</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9487944022011936</v>
+        <v>0.9677994481786184</v>
       </c>
       <c r="D18">
-        <v>0.9775584198832876</v>
+        <v>0.9935263599100023</v>
       </c>
       <c r="E18">
-        <v>0.959680658182508</v>
-      </c>
-      <c r="F18">
-        <v>0.9120062440130621</v>
+        <v>0.9795994716106105</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022330099496977</v>
+        <v>1.034585598511388</v>
       </c>
       <c r="J18">
-        <v>0.9779419350434537</v>
+        <v>0.9961366834649076</v>
       </c>
       <c r="K18">
-        <v>0.9917761041578583</v>
+        <v>1.007457780335436</v>
       </c>
       <c r="L18">
-        <v>0.9742336463279061</v>
-      </c>
-      <c r="M18">
-        <v>0.9275389012114277</v>
+        <v>0.9937798881339932</v>
       </c>
       <c r="N18">
-        <v>0.9793307247627232</v>
+        <v>0.9975513118139026</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9497071019539728</v>
+        <v>0.9683747259538623</v>
       </c>
       <c r="D19">
-        <v>0.9782764679118442</v>
+        <v>0.9939622352312251</v>
       </c>
       <c r="E19">
-        <v>0.96047065197049</v>
-      </c>
-      <c r="F19">
-        <v>0.9134759041618122</v>
+        <v>0.9800654144727248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022718032820602</v>
+        <v>1.034771077928069</v>
       </c>
       <c r="J19">
-        <v>0.9786679892297572</v>
+        <v>0.9965461650847185</v>
       </c>
       <c r="K19">
-        <v>0.992414396361017</v>
+        <v>1.007820900697445</v>
       </c>
       <c r="L19">
-        <v>0.9749400504178337</v>
-      </c>
-      <c r="M19">
-        <v>0.9289026314544403</v>
+        <v>0.994170905992569</v>
       </c>
       <c r="N19">
-        <v>0.9800578100292509</v>
+        <v>0.9979613749445817</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.945587316435522</v>
+        <v>0.9657886105782183</v>
       </c>
       <c r="D20">
-        <v>0.9750354067098733</v>
+        <v>0.9920030562482461</v>
       </c>
       <c r="E20">
-        <v>0.9569051009731466</v>
-      </c>
-      <c r="F20">
-        <v>0.9068158508874842</v>
+        <v>0.9779716062722806</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020963754863411</v>
+        <v>1.033936042128042</v>
       </c>
       <c r="J20">
-        <v>0.9753898036998434</v>
+        <v>0.9947051441255671</v>
       </c>
       <c r="K20">
-        <v>0.9895319073134896</v>
+        <v>1.006187995045615</v>
       </c>
       <c r="L20">
-        <v>0.9717505514644528</v>
-      </c>
-      <c r="M20">
-        <v>0.9227222590758171</v>
+        <v>0.9924131827484807</v>
       </c>
       <c r="N20">
-        <v>0.9767749690998714</v>
+        <v>0.9961177395245001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.931458975814082</v>
+        <v>0.9571354312419872</v>
       </c>
       <c r="D21">
-        <v>0.9639220297887728</v>
+        <v>0.9854531525424213</v>
       </c>
       <c r="E21">
-        <v>0.9446851484614521</v>
-      </c>
-      <c r="F21">
-        <v>0.8834120588656008</v>
+        <v>0.970980676390629</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014884091953935</v>
+        <v>1.031120544236506</v>
       </c>
       <c r="J21">
-        <v>0.9641307762537143</v>
+        <v>0.9885414390877597</v>
       </c>
       <c r="K21">
-        <v>0.9796207375152192</v>
+        <v>1.000715461594941</v>
       </c>
       <c r="L21">
-        <v>0.9607961408086401</v>
-      </c>
-      <c r="M21">
-        <v>0.9009990174321237</v>
+        <v>0.9865335051077043</v>
       </c>
       <c r="N21">
-        <v>0.9654999525433404</v>
+        <v>0.9899452813185522</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9219138432029055</v>
+        <v>0.9514919016513275</v>
       </c>
       <c r="D22">
-        <v>0.9564141262130296</v>
+        <v>0.9811867152117724</v>
       </c>
       <c r="E22">
-        <v>0.9364369853545029</v>
-      </c>
-      <c r="F22">
-        <v>0.8670195140223395</v>
+        <v>0.9664337077796068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010718384124195</v>
+        <v>1.02926835377232</v>
       </c>
       <c r="J22">
-        <v>0.9565097032686687</v>
+        <v>0.9845193377791179</v>
       </c>
       <c r="K22">
-        <v>0.9729014653672947</v>
+        <v>0.9971403123371712</v>
       </c>
       <c r="L22">
-        <v>0.9533823310161584</v>
-      </c>
-      <c r="M22">
-        <v>0.8857821761875165</v>
+        <v>0.9827007935277687</v>
       </c>
       <c r="N22">
-        <v>0.9578680567605066</v>
+        <v>0.9859174681647108</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9270441642403523</v>
+        <v>0.9545038946390791</v>
       </c>
       <c r="D23">
-        <v>0.9604495369609292</v>
+        <v>0.9834631698805447</v>
       </c>
       <c r="E23">
-        <v>0.9408693871049015</v>
-      </c>
-      <c r="F23">
-        <v>0.8758950999345341</v>
+        <v>0.9688592317837461</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01296345643695</v>
+        <v>1.030258332860126</v>
       </c>
       <c r="J23">
-        <v>0.9606073296742547</v>
+        <v>0.9866661259960389</v>
       </c>
       <c r="K23">
-        <v>0.9765153436187399</v>
+        <v>0.9990489050058686</v>
       </c>
       <c r="L23">
-        <v>0.9573683354815198</v>
-      </c>
-      <c r="M23">
-        <v>0.8940211110935732</v>
+        <v>0.9847461112595438</v>
       </c>
       <c r="N23">
-        <v>0.9619715022655929</v>
+        <v>0.9880673050671398</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9458144218245603</v>
+        <v>0.965930457435324</v>
       </c>
       <c r="D24">
-        <v>0.9752140656483247</v>
+        <v>0.992110498051723</v>
       </c>
       <c r="E24">
-        <v>0.9571016294496179</v>
-      </c>
-      <c r="F24">
-        <v>0.9071847733155555</v>
+        <v>0.9780863969907457</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02106067529802</v>
+        <v>1.033981924221889</v>
       </c>
       <c r="J24">
-        <v>0.9755705745688614</v>
+        <v>0.9948061378477695</v>
       </c>
       <c r="K24">
-        <v>0.9896908953390763</v>
+        <v>1.00627759338816</v>
       </c>
       <c r="L24">
-        <v>0.9719264337761147</v>
-      </c>
-      <c r="M24">
-        <v>0.9230646333484251</v>
+        <v>0.9925095880879735</v>
       </c>
       <c r="N24">
-        <v>0.9769559966842585</v>
+        <v>0.9962188766693721</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9652974868685483</v>
+        <v>0.9783988832597198</v>
       </c>
       <c r="D25">
-        <v>0.9905438901636728</v>
+        <v>1.001561876844066</v>
       </c>
       <c r="E25">
-        <v>0.9739711316254424</v>
-      </c>
-      <c r="F25">
-        <v>0.9381177539515945</v>
+        <v>0.9882008019004817</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029282214256721</v>
+        <v>1.037975815543311</v>
       </c>
       <c r="J25">
-        <v>0.9910519538798476</v>
+        <v>1.003675739337995</v>
       </c>
       <c r="K25">
-        <v>1.003290795423355</v>
+        <v>1.014135994975626</v>
       </c>
       <c r="L25">
-        <v>0.986987414425287</v>
-      </c>
-      <c r="M25">
-        <v>0.9517592105100693</v>
+        <v>1.00098508908013</v>
       </c>
       <c r="N25">
-        <v>0.9924593613296046</v>
+        <v>1.005101074011071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9877921669109238</v>
+        <v>0.9990471402849193</v>
       </c>
       <c r="D2">
-        <v>1.008688621828893</v>
+        <v>1.017472565364215</v>
       </c>
       <c r="E2">
-        <v>0.9958524391454568</v>
+        <v>1.014286266827106</v>
+      </c>
+      <c r="F2">
+        <v>1.022258537528678</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040925694917978</v>
+        <v>1.046338492425058</v>
       </c>
       <c r="J2">
-        <v>1.010344245676663</v>
+        <v>1.021256388621601</v>
       </c>
       <c r="K2">
-        <v>1.020028223076104</v>
+        <v>1.028693730274963</v>
       </c>
       <c r="L2">
-        <v>1.007369860111445</v>
+        <v>1.025550095489007</v>
+      </c>
+      <c r="M2">
+        <v>1.03341624623184</v>
       </c>
       <c r="N2">
-        <v>1.011779050393629</v>
+        <v>1.022706689833188</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9943292941618173</v>
+        <v>1.003618077649862</v>
       </c>
       <c r="D3">
-        <v>1.013649469528847</v>
+        <v>1.020742804699534</v>
       </c>
       <c r="E3">
-        <v>1.001193809157963</v>
+        <v>1.018221149415542</v>
+      </c>
+      <c r="F3">
+        <v>1.02684405522684</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042942836435921</v>
+        <v>1.047632852422278</v>
       </c>
       <c r="J3">
-        <v>1.014975751210651</v>
+        <v>1.024010593822035</v>
       </c>
       <c r="K3">
-        <v>1.024110631639323</v>
+        <v>1.031116982305781</v>
       </c>
       <c r="L3">
-        <v>1.011811437728669</v>
+        <v>1.028626077067376</v>
+      </c>
+      <c r="M3">
+        <v>1.03714460696226</v>
       </c>
       <c r="N3">
-        <v>1.016417133196716</v>
+        <v>1.025464806320919</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9984387855582062</v>
+        <v>1.006513527288535</v>
       </c>
       <c r="D4">
-        <v>1.016767778649547</v>
+        <v>1.02281468398787</v>
       </c>
       <c r="E4">
-        <v>1.004558554583024</v>
+        <v>1.020719427722494</v>
+      </c>
+      <c r="F4">
+        <v>1.029754463194573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044193800902926</v>
+        <v>1.048438447403068</v>
       </c>
       <c r="J4">
-        <v>1.017882511847862</v>
+        <v>1.025752071278806</v>
       </c>
       <c r="K4">
-        <v>1.026667957383698</v>
+        <v>1.032645338056883</v>
       </c>
       <c r="L4">
-        <v>1.014602271467789</v>
+        <v>1.030574056999086</v>
+      </c>
+      <c r="M4">
+        <v>1.03950656621412</v>
       </c>
       <c r="N4">
-        <v>1.019328021767442</v>
+        <v>1.027208756875429</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000139012423805</v>
+        <v>1.007716404450212</v>
       </c>
       <c r="D5">
-        <v>1.018057748972702</v>
+        <v>1.02367544237394</v>
       </c>
       <c r="E5">
-        <v>1.005952244321373</v>
+        <v>1.021758642199883</v>
+      </c>
+      <c r="F5">
+        <v>1.030964897131126</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044707185046142</v>
+        <v>1.048769633038844</v>
       </c>
       <c r="J5">
-        <v>1.019083918320403</v>
+        <v>1.026474749907677</v>
       </c>
       <c r="K5">
-        <v>1.027723748733713</v>
+        <v>1.033278628503273</v>
       </c>
       <c r="L5">
-        <v>1.015756546534425</v>
+        <v>1.031383165290772</v>
+      </c>
+      <c r="M5">
+        <v>1.04048782999499</v>
       </c>
       <c r="N5">
-        <v>1.020531134374977</v>
+        <v>1.027932461790846</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000422920800577</v>
+        <v>1.007917545163985</v>
       </c>
       <c r="D6">
-        <v>1.018273138423827</v>
+        <v>1.023819374817328</v>
       </c>
       <c r="E6">
-        <v>1.006185057463081</v>
+        <v>1.021932493328781</v>
+      </c>
+      <c r="F6">
+        <v>1.031167379526908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0447926632189</v>
+        <v>1.04882480606156</v>
       </c>
       <c r="J6">
-        <v>1.019284459205688</v>
+        <v>1.026595545783107</v>
       </c>
       <c r="K6">
-        <v>1.027899912438718</v>
+        <v>1.033384426854754</v>
       </c>
       <c r="L6">
-        <v>1.015949266155063</v>
+        <v>1.03151845127772</v>
+      </c>
+      <c r="M6">
+        <v>1.040651913306217</v>
       </c>
       <c r="N6">
-        <v>1.020731960051322</v>
+        <v>1.028053429210274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9984616099296151</v>
+        <v>1.006529655969131</v>
       </c>
       <c r="D7">
-        <v>1.0167850964331</v>
+        <v>1.022826225386649</v>
       </c>
       <c r="E7">
-        <v>1.004577257724087</v>
+        <v>1.020733356713458</v>
+      </c>
+      <c r="F7">
+        <v>1.0297706879345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044200709372719</v>
+        <v>1.048442901931511</v>
       </c>
       <c r="J7">
-        <v>1.017898644781841</v>
+        <v>1.02576176444657</v>
       </c>
       <c r="K7">
-        <v>1.026682139691567</v>
+        <v>1.032653836045831</v>
       </c>
       <c r="L7">
-        <v>1.014617768407016</v>
+        <v>1.030584906520668</v>
+      </c>
+      <c r="M7">
+        <v>1.039519723387495</v>
       </c>
       <c r="N7">
-        <v>1.019344177612037</v>
+        <v>1.027218463808603</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9900272638604917</v>
+        <v>1.000605129880613</v>
       </c>
       <c r="D8">
-        <v>1.010384765133425</v>
+        <v>1.018587103383584</v>
       </c>
       <c r="E8">
-        <v>0.9976771793357666</v>
+        <v>1.015626231177375</v>
+      </c>
+      <c r="F8">
+        <v>1.023820277101678</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041618926326788</v>
+        <v>1.046782640843231</v>
       </c>
       <c r="J8">
-        <v>1.011928762851074</v>
+        <v>1.022195793157782</v>
       </c>
       <c r="K8">
-        <v>1.021425881848524</v>
+        <v>1.029521051665835</v>
       </c>
       <c r="L8">
-        <v>1.008888706907856</v>
+        <v>1.026598614985514</v>
+      </c>
+      <c r="M8">
+        <v>1.034686972197474</v>
       </c>
       <c r="N8">
-        <v>1.013365817764174</v>
+        <v>1.023647428431562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9741713573908958</v>
+        <v>0.9896631302827696</v>
       </c>
       <c r="D9">
-        <v>0.9983558993800901</v>
+        <v>1.010763689590404</v>
       </c>
       <c r="E9">
-        <v>0.9847660528255574</v>
+        <v>1.006241549133525</v>
+      </c>
+      <c r="F9">
+        <v>1.012877604356905</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036630806192476</v>
+        <v>1.043604727860475</v>
       </c>
       <c r="J9">
-        <v>1.000670360083814</v>
+        <v>1.015586265911294</v>
       </c>
       <c r="K9">
-        <v>1.011475707408558</v>
+        <v>1.023684514352531</v>
       </c>
       <c r="L9">
-        <v>0.9981112222615095</v>
+        <v>1.0192341667661</v>
+      </c>
+      <c r="M9">
+        <v>1.025765150218661</v>
       </c>
       <c r="N9">
-        <v>1.002091426773628</v>
+        <v>1.017028514898261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9628224312340967</v>
+        <v>0.9819927856247667</v>
       </c>
       <c r="D10">
-        <v>0.989756833799133</v>
+        <v>1.005287831780149</v>
       </c>
       <c r="E10">
-        <v>0.9755726213390674</v>
+        <v>0.9996981093888203</v>
+      </c>
+      <c r="F10">
+        <v>1.00524104516222</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032974520072043</v>
+        <v>1.041304983060743</v>
       </c>
       <c r="J10">
-        <v>0.992592888750401</v>
+        <v>1.010939524838137</v>
       </c>
       <c r="K10">
-        <v>1.004313527863595</v>
+        <v>1.019562264651454</v>
       </c>
       <c r="L10">
-        <v>0.9903973849782438</v>
+        <v>1.014072816704014</v>
+      </c>
+      <c r="M10">
+        <v>1.01951631133478</v>
       </c>
       <c r="N10">
-        <v>0.994002484504422</v>
+        <v>1.012375174919791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9576951321125705</v>
+        <v>0.9785730845518863</v>
       </c>
       <c r="D11">
-        <v>0.9858765249902413</v>
+        <v>1.002849532873454</v>
       </c>
       <c r="E11">
-        <v>0.9714321618748213</v>
+        <v>0.996789885467375</v>
+      </c>
+      <c r="F11">
+        <v>1.001845100923094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031303586868911</v>
+        <v>1.040263406093657</v>
       </c>
       <c r="J11">
-        <v>0.9889402559620906</v>
+        <v>1.008865237599517</v>
       </c>
       <c r="K11">
-        <v>1.001069796568596</v>
+        <v>1.017717910511419</v>
       </c>
       <c r="L11">
-        <v>0.9869137126391629</v>
+        <v>1.011772594825062</v>
+      </c>
+      <c r="M11">
+        <v>1.016732305026839</v>
       </c>
       <c r="N11">
-        <v>0.9903446645585897</v>
+        <v>1.010297941955369</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9557558311557663</v>
+        <v>0.9772872178426431</v>
       </c>
       <c r="D12">
-        <v>0.9844097700253943</v>
+        <v>1.00193323826811</v>
       </c>
       <c r="E12">
-        <v>0.9698682283766847</v>
+        <v>0.9956977690729526</v>
+      </c>
+      <c r="F12">
+        <v>1.000569525220463</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030668849742805</v>
+        <v>1.039869382428784</v>
       </c>
       <c r="J12">
-        <v>0.9875583337559399</v>
+        <v>1.008084929335419</v>
       </c>
       <c r="K12">
-        <v>0.9998418759574647</v>
+        <v>1.017023493971798</v>
       </c>
       <c r="L12">
-        <v>0.9855964053876316</v>
+        <v>1.010907859814955</v>
+      </c>
+      <c r="M12">
+        <v>1.015685822154009</v>
       </c>
       <c r="N12">
-        <v>0.9889607798643975</v>
+        <v>1.009516525564033</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.956173440434983</v>
+        <v>0.9775637626770693</v>
       </c>
       <c r="D13">
-        <v>0.9847255773477975</v>
+        <v>1.002130274799279</v>
       </c>
       <c r="E13">
-        <v>0.9702049078142604</v>
+        <v>0.9959325795118146</v>
+      </c>
+      <c r="F13">
+        <v>1.000843794599969</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030805655615677</v>
+        <v>1.039954229106433</v>
       </c>
       <c r="J13">
-        <v>0.9878559324368719</v>
+        <v>1.00825276079548</v>
       </c>
       <c r="K13">
-        <v>1.000106340984296</v>
+        <v>1.017172878436192</v>
       </c>
       <c r="L13">
-        <v>0.9858800577619794</v>
+        <v>1.011093824567932</v>
+      </c>
+      <c r="M13">
+        <v>1.015910867030266</v>
       </c>
       <c r="N13">
-        <v>0.9892588011695914</v>
+        <v>1.009684595364018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9575355558842197</v>
+        <v>0.9784671185783657</v>
       </c>
       <c r="D14">
-        <v>0.9857558130251952</v>
+        <v>1.002774010985429</v>
       </c>
       <c r="E14">
-        <v>0.9713034290599689</v>
+        <v>0.9966998567465472</v>
+      </c>
+      <c r="F14">
+        <v>1.001739955104683</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031251412045307</v>
+        <v>1.040230983101795</v>
       </c>
       <c r="J14">
-        <v>0.9888265509925441</v>
+        <v>1.008800940401845</v>
       </c>
       <c r="K14">
-        <v>1.000968776804997</v>
+        <v>1.017660702907658</v>
       </c>
       <c r="L14">
-        <v>0.9868053101188689</v>
+        <v>1.01170132940738</v>
+      </c>
+      <c r="M14">
+        <v>1.016646058741581</v>
       </c>
       <c r="N14">
-        <v>0.9902307981149443</v>
+        <v>1.010233553448301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583701011113961</v>
+        <v>0.9790216071929768</v>
       </c>
       <c r="D15">
-        <v>0.9863871451851711</v>
+        <v>1.003169217596887</v>
       </c>
       <c r="E15">
-        <v>0.9719767576179482</v>
+        <v>0.9971710089353488</v>
+      </c>
+      <c r="F15">
+        <v>1.002290207748914</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031524163218034</v>
+        <v>1.040400546776739</v>
       </c>
       <c r="J15">
-        <v>0.9894211856515506</v>
+        <v>1.009137375073384</v>
       </c>
       <c r="K15">
-        <v>1.001497044387833</v>
+        <v>1.017960016836545</v>
       </c>
       <c r="L15">
-        <v>0.9873722431086036</v>
+        <v>1.012074248276452</v>
+      </c>
+      <c r="M15">
+        <v>1.017097374753319</v>
       </c>
       <c r="N15">
-        <v>0.9908262772233721</v>
+        <v>1.010570465895664</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9631579933698438</v>
+        <v>0.9822175953524918</v>
       </c>
       <c r="D16">
-        <v>0.9900108975669166</v>
+        <v>1.005448195312441</v>
       </c>
       <c r="E16">
-        <v>0.9758438811421456</v>
+        <v>0.9998894889161776</v>
+      </c>
+      <c r="F16">
+        <v>1.005464478471279</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033083491672511</v>
+        <v>1.04137312305344</v>
       </c>
       <c r="J16">
-        <v>0.9928318800430759</v>
+        <v>1.011075837562575</v>
       </c>
       <c r="K16">
-        <v>1.004525665490434</v>
+        <v>1.019683382003997</v>
       </c>
       <c r="L16">
-        <v>0.9906254158077137</v>
+        <v>1.014224055348421</v>
+      </c>
+      <c r="M16">
+        <v>1.019699376143428</v>
       </c>
       <c r="N16">
-        <v>0.9942418151921454</v>
+        <v>1.012511681223933</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.966102391607614</v>
+        <v>0.984195427837234</v>
       </c>
       <c r="D17">
-        <v>0.9922407323408814</v>
+        <v>1.006859397678848</v>
       </c>
       <c r="E17">
-        <v>0.9782255444204414</v>
+        <v>1.001574247531287</v>
+      </c>
+      <c r="F17">
+        <v>1.007431196446885</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034037526021447</v>
+        <v>1.041970762966796</v>
       </c>
       <c r="J17">
-        <v>0.9949285512460649</v>
+        <v>1.01227479952681</v>
       </c>
       <c r="K17">
-        <v>1.006386191313085</v>
+        <v>1.020748216320676</v>
       </c>
       <c r="L17">
-        <v>0.9926264428727064</v>
+        <v>1.015554730673798</v>
+      </c>
+      <c r="M17">
+        <v>1.021310172476114</v>
       </c>
       <c r="N17">
-        <v>0.9963414639087342</v>
+        <v>1.01371234585168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9677994481786184</v>
+        <v>0.9853396317461597</v>
       </c>
       <c r="D18">
-        <v>0.9935263599100023</v>
+        <v>1.00767607855359</v>
       </c>
       <c r="E18">
-        <v>0.9795994716106105</v>
+        <v>1.00254975913888</v>
+      </c>
+      <c r="F18">
+        <v>1.008569791224117</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034585598511388</v>
+        <v>1.042314958303277</v>
       </c>
       <c r="J18">
-        <v>0.9961366834649076</v>
+        <v>1.012968164714901</v>
       </c>
       <c r="K18">
-        <v>1.007457780335436</v>
+        <v>1.021363615403767</v>
       </c>
       <c r="L18">
-        <v>0.9937798881339932</v>
+        <v>1.016324625085671</v>
+      </c>
+      <c r="M18">
+        <v>1.02224222052782</v>
       </c>
       <c r="N18">
-        <v>0.9975513118139026</v>
+        <v>1.014406695697869</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9683747259538623</v>
+        <v>0.9857282007782822</v>
       </c>
       <c r="D19">
-        <v>0.9939622352312251</v>
+        <v>1.007953466377228</v>
       </c>
       <c r="E19">
-        <v>0.9800654144727248</v>
+        <v>1.002881183838873</v>
+      </c>
+      <c r="F19">
+        <v>1.008956593142063</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034771077928069</v>
+        <v>1.042431581612606</v>
       </c>
       <c r="J19">
-        <v>0.9965461650847185</v>
+        <v>1.013203585834755</v>
       </c>
       <c r="K19">
-        <v>1.007820900697445</v>
+        <v>1.021572495854647</v>
       </c>
       <c r="L19">
-        <v>0.994170905992569</v>
+        <v>1.016586091439283</v>
+      </c>
+      <c r="M19">
+        <v>1.022558770659396</v>
       </c>
       <c r="N19">
-        <v>0.9979613749445817</v>
+        <v>1.014642451142715</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9657886105782183</v>
+        <v>0.9839842067392812</v>
       </c>
       <c r="D20">
-        <v>0.9920030562482461</v>
+        <v>1.006708659657471</v>
       </c>
       <c r="E20">
-        <v>0.9779716062722806</v>
+        <v>1.001394235864329</v>
+      </c>
+      <c r="F20">
+        <v>1.007221076791387</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033936042128042</v>
+        <v>1.041907098568433</v>
       </c>
       <c r="J20">
-        <v>0.9947051441255671</v>
+        <v>1.012146783006992</v>
       </c>
       <c r="K20">
-        <v>1.006187995045615</v>
+        <v>1.0206345622596</v>
       </c>
       <c r="L20">
-        <v>0.9924131827484807</v>
+        <v>1.015412613538746</v>
+      </c>
+      <c r="M20">
+        <v>1.021138129655361</v>
       </c>
       <c r="N20">
-        <v>0.9961177395245001</v>
+        <v>1.013584147533721</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9571354312419872</v>
+        <v>0.9782015416398473</v>
       </c>
       <c r="D21">
-        <v>0.9854531525424213</v>
+        <v>1.002584743606471</v>
       </c>
       <c r="E21">
-        <v>0.970980676390629</v>
+        <v>0.9964742456993251</v>
+      </c>
+      <c r="F21">
+        <v>1.001476455733188</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031120544236506</v>
+        <v>1.040149685098862</v>
       </c>
       <c r="J21">
-        <v>0.9885414390877597</v>
+        <v>1.008639790420139</v>
       </c>
       <c r="K21">
-        <v>1.000715461594941</v>
+        <v>1.017517312134824</v>
       </c>
       <c r="L21">
-        <v>0.9865335051077043</v>
+        <v>1.011522723868877</v>
+      </c>
+      <c r="M21">
+        <v>1.01642991009381</v>
       </c>
       <c r="N21">
-        <v>0.9899452813185522</v>
+        <v>1.010072174615137</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9514919016513275</v>
+        <v>0.9744748060435688</v>
       </c>
       <c r="D22">
-        <v>0.9811867152117724</v>
+        <v>0.9999302593000565</v>
       </c>
       <c r="E22">
-        <v>0.9664337077796068</v>
+        <v>0.9933118196652785</v>
+      </c>
+      <c r="F22">
+        <v>0.9977821795554397</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02926835377232</v>
+        <v>1.039003302931335</v>
       </c>
       <c r="J22">
-        <v>0.9845193377791179</v>
+        <v>1.00637769434778</v>
       </c>
       <c r="K22">
-        <v>0.9971403123371712</v>
+        <v>1.015503097893941</v>
       </c>
       <c r="L22">
-        <v>0.9827007935277687</v>
+        <v>1.00901694534089</v>
+      </c>
+      <c r="M22">
+        <v>1.013397700306375</v>
       </c>
       <c r="N22">
-        <v>0.9859174681647108</v>
+        <v>1.007806866106889</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9545038946390791</v>
+        <v>0.976459342104654</v>
       </c>
       <c r="D23">
-        <v>0.9834631698805447</v>
+        <v>1.001343469525189</v>
       </c>
       <c r="E23">
-        <v>0.9688592317837461</v>
+        <v>0.9949950452309236</v>
+      </c>
+      <c r="F23">
+        <v>0.9997486645607233</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030258332860126</v>
+        <v>1.03961503999453</v>
       </c>
       <c r="J23">
-        <v>0.9866661259960389</v>
+        <v>1.007582456577764</v>
       </c>
       <c r="K23">
-        <v>0.9990489050058686</v>
+        <v>1.016576163302544</v>
       </c>
       <c r="L23">
-        <v>0.9847461112595438</v>
+        <v>1.010351180249569</v>
+      </c>
+      <c r="M23">
+        <v>1.015012175117755</v>
       </c>
       <c r="N23">
-        <v>0.9880673050671398</v>
+        <v>1.009013339237428</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.965930457435324</v>
+        <v>0.9840796775476495</v>
       </c>
       <c r="D24">
-        <v>0.992110498051723</v>
+        <v>1.006776791575542</v>
       </c>
       <c r="E24">
-        <v>0.9780863969907457</v>
+        <v>1.001475597529861</v>
+      </c>
+      <c r="F24">
+        <v>1.007316047212349</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033981924221889</v>
+        <v>1.041935879341542</v>
       </c>
       <c r="J24">
-        <v>0.9948061378477695</v>
+        <v>1.012204646573142</v>
       </c>
       <c r="K24">
-        <v>1.00627759338816</v>
+        <v>1.020685935224176</v>
       </c>
       <c r="L24">
-        <v>0.9925095880879735</v>
+        <v>1.015476849480917</v>
+      </c>
+      <c r="M24">
+        <v>1.021215891538874</v>
       </c>
       <c r="N24">
-        <v>0.9962188766693721</v>
+        <v>1.013642093272771</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9783988832597198</v>
+        <v>0.9925551708775052</v>
       </c>
       <c r="D25">
-        <v>1.001561876844066</v>
+        <v>1.01283035717111</v>
       </c>
       <c r="E25">
-        <v>0.9882008019004817</v>
+        <v>1.008716137083825</v>
+      </c>
+      <c r="F25">
+        <v>1.015764100994461</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037975815543311</v>
+        <v>1.044457330491047</v>
       </c>
       <c r="J25">
-        <v>1.003675739337995</v>
+        <v>1.017335707320171</v>
       </c>
       <c r="K25">
-        <v>1.014135994975626</v>
+        <v>1.025232710645641</v>
       </c>
       <c r="L25">
-        <v>1.00098508908013</v>
+        <v>1.021180636453282</v>
+      </c>
+      <c r="M25">
+        <v>1.028122530941216</v>
       </c>
       <c r="N25">
-        <v>1.005101074011071</v>
+        <v>1.018780440714602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9990471402849193</v>
+        <v>1.029551440430632</v>
       </c>
       <c r="D2">
-        <v>1.017472565364215</v>
+        <v>1.032645670186132</v>
       </c>
       <c r="E2">
-        <v>1.014286266827106</v>
+        <v>1.039604559829757</v>
       </c>
       <c r="F2">
-        <v>1.022258537528678</v>
+        <v>1.051184082651919</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046338492425058</v>
+        <v>1.033831422049696</v>
       </c>
       <c r="J2">
-        <v>1.021256388621601</v>
+        <v>1.034697588555688</v>
       </c>
       <c r="K2">
-        <v>1.028693730274963</v>
+        <v>1.035450302334172</v>
       </c>
       <c r="L2">
-        <v>1.025550095489007</v>
+        <v>1.042389274677821</v>
       </c>
       <c r="M2">
-        <v>1.03341624623184</v>
+        <v>1.053936289174165</v>
       </c>
       <c r="N2">
-        <v>1.022706689833188</v>
+        <v>1.03616697781291</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003618077649862</v>
+        <v>1.030510146849641</v>
       </c>
       <c r="D3">
-        <v>1.020742804699534</v>
+        <v>1.033335809851813</v>
       </c>
       <c r="E3">
-        <v>1.018221149415542</v>
+        <v>1.040483903499396</v>
       </c>
       <c r="F3">
-        <v>1.02684405522684</v>
+        <v>1.052214318521658</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047632852422278</v>
+        <v>1.034015289360558</v>
       </c>
       <c r="J3">
-        <v>1.024010593822035</v>
+        <v>1.035297327688827</v>
       </c>
       <c r="K3">
-        <v>1.031116982305781</v>
+        <v>1.035949574867607</v>
       </c>
       <c r="L3">
-        <v>1.028626077067376</v>
+        <v>1.043078688937177</v>
       </c>
       <c r="M3">
-        <v>1.03714460696226</v>
+        <v>1.054778560566304</v>
       </c>
       <c r="N3">
-        <v>1.025464806320919</v>
+        <v>1.036767568644409</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006513527288535</v>
+        <v>1.031130712055624</v>
       </c>
       <c r="D4">
-        <v>1.02281468398787</v>
+        <v>1.033782176940289</v>
       </c>
       <c r="E4">
-        <v>1.020719427722494</v>
+        <v>1.041053466987981</v>
       </c>
       <c r="F4">
-        <v>1.029754463194573</v>
+        <v>1.052881588695312</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048438447403068</v>
+        <v>1.034132518772976</v>
       </c>
       <c r="J4">
-        <v>1.025752071278806</v>
+        <v>1.035685019294703</v>
       </c>
       <c r="K4">
-        <v>1.032645338056883</v>
+        <v>1.036271763254257</v>
       </c>
       <c r="L4">
-        <v>1.030574056999086</v>
+        <v>1.043524718803655</v>
       </c>
       <c r="M4">
-        <v>1.03950656621412</v>
+        <v>1.055323598082971</v>
       </c>
       <c r="N4">
-        <v>1.027208756875429</v>
+        <v>1.037155810816834</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007716404450212</v>
+        <v>1.031391649130359</v>
       </c>
       <c r="D5">
-        <v>1.02367544237394</v>
+        <v>1.033969780623271</v>
       </c>
       <c r="E5">
-        <v>1.021758642199883</v>
+        <v>1.041293046670854</v>
       </c>
       <c r="F5">
-        <v>1.030964897131126</v>
+        <v>1.053162260936616</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048769633038844</v>
+        <v>1.034181383615067</v>
       </c>
       <c r="J5">
-        <v>1.026474749907677</v>
+        <v>1.035847913108804</v>
       </c>
       <c r="K5">
-        <v>1.033278628503273</v>
+        <v>1.036407000992311</v>
       </c>
       <c r="L5">
-        <v>1.031383165290772</v>
+        <v>1.043712212763193</v>
       </c>
       <c r="M5">
-        <v>1.04048782999499</v>
+        <v>1.055552738439669</v>
       </c>
       <c r="N5">
-        <v>1.027932461790846</v>
+        <v>1.037318935958835</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007917545163985</v>
+        <v>1.031435464609703</v>
       </c>
       <c r="D6">
-        <v>1.023819374817328</v>
+        <v>1.034001277193481</v>
       </c>
       <c r="E6">
-        <v>1.021932493328781</v>
+        <v>1.041333281049314</v>
       </c>
       <c r="F6">
-        <v>1.031167379526908</v>
+        <v>1.053209395915862</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04882480606156</v>
+        <v>1.034189563683093</v>
       </c>
       <c r="J6">
-        <v>1.026595545783107</v>
+        <v>1.035875258293221</v>
       </c>
       <c r="K6">
-        <v>1.033384426854754</v>
+        <v>1.036429695646351</v>
       </c>
       <c r="L6">
-        <v>1.03151845127772</v>
+        <v>1.043743692801303</v>
       </c>
       <c r="M6">
-        <v>1.040651913306217</v>
+        <v>1.055591212471389</v>
       </c>
       <c r="N6">
-        <v>1.028053429210274</v>
+        <v>1.037346319976551</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006529655969131</v>
+        <v>1.031134198508301</v>
       </c>
       <c r="D7">
-        <v>1.022826225386649</v>
+        <v>1.033784683904225</v>
       </c>
       <c r="E7">
-        <v>1.020733356713458</v>
+        <v>1.041056667733611</v>
       </c>
       <c r="F7">
-        <v>1.0297706879345</v>
+        <v>1.052885338456139</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048442901931511</v>
+        <v>1.034133173352232</v>
       </c>
       <c r="J7">
-        <v>1.02576176444657</v>
+        <v>1.035687196251334</v>
       </c>
       <c r="K7">
-        <v>1.032653836045831</v>
+        <v>1.036273571134904</v>
       </c>
       <c r="L7">
-        <v>1.030584906520668</v>
+        <v>1.043527224175031</v>
       </c>
       <c r="M7">
-        <v>1.039519723387495</v>
+        <v>1.055326659842996</v>
       </c>
       <c r="N7">
-        <v>1.027218463808603</v>
+        <v>1.037157990864993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000605129880613</v>
+        <v>1.029875394161851</v>
       </c>
       <c r="D8">
-        <v>1.018587103383584</v>
+        <v>1.032878946630497</v>
       </c>
       <c r="E8">
-        <v>1.015626231177375</v>
+        <v>1.039901619590535</v>
       </c>
       <c r="F8">
-        <v>1.023820277101678</v>
+        <v>1.051532122820806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046782640843231</v>
+        <v>1.033893921805998</v>
       </c>
       <c r="J8">
-        <v>1.022195793157782</v>
+        <v>1.034900351327207</v>
       </c>
       <c r="K8">
-        <v>1.029521051665835</v>
+        <v>1.035619214293819</v>
       </c>
       <c r="L8">
-        <v>1.026598614985514</v>
+        <v>1.042622278844136</v>
       </c>
       <c r="M8">
-        <v>1.034686972197474</v>
+        <v>1.054220931601241</v>
       </c>
       <c r="N8">
-        <v>1.023647428431562</v>
+        <v>1.036370028530821</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9896631302827696</v>
+        <v>1.027658922334064</v>
       </c>
       <c r="D9">
-        <v>1.010763689590404</v>
+        <v>1.031281451451806</v>
       </c>
       <c r="E9">
-        <v>1.006241549133525</v>
+        <v>1.037870686233235</v>
       </c>
       <c r="F9">
-        <v>1.012877604356905</v>
+        <v>1.049152521079001</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043604727860475</v>
+        <v>1.033458993086386</v>
       </c>
       <c r="J9">
-        <v>1.015586265911294</v>
+        <v>1.033510958317053</v>
       </c>
       <c r="K9">
-        <v>1.023684514352531</v>
+        <v>1.034459498964473</v>
       </c>
       <c r="L9">
-        <v>1.0192341667661</v>
+        <v>1.041027173643551</v>
       </c>
       <c r="M9">
-        <v>1.025765150218661</v>
+        <v>1.052272782248971</v>
       </c>
       <c r="N9">
-        <v>1.017028514898261</v>
+        <v>1.034978662423227</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9819927856247667</v>
+        <v>1.026182460433297</v>
       </c>
       <c r="D10">
-        <v>1.005287831780149</v>
+        <v>1.030215541666793</v>
       </c>
       <c r="E10">
-        <v>0.9996981093888203</v>
+        <v>1.036519759191306</v>
       </c>
       <c r="F10">
-        <v>1.00524104516222</v>
+        <v>1.047569498971449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041304983060743</v>
+        <v>1.033160110464511</v>
       </c>
       <c r="J10">
-        <v>1.010939524838137</v>
+        <v>1.032582813400236</v>
       </c>
       <c r="K10">
-        <v>1.019562264651454</v>
+        <v>1.033681935540267</v>
       </c>
       <c r="L10">
-        <v>1.014072816704014</v>
+        <v>1.039963501754656</v>
       </c>
       <c r="M10">
-        <v>1.01951631133478</v>
+        <v>1.05097426405748</v>
       </c>
       <c r="N10">
-        <v>1.012375174919791</v>
+        <v>1.034049199434169</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9785730845518863</v>
+        <v>1.025543425510594</v>
       </c>
       <c r="D11">
-        <v>1.002849532873454</v>
+        <v>1.029753789977661</v>
       </c>
       <c r="E11">
-        <v>0.996789885467375</v>
+        <v>1.035935524269749</v>
       </c>
       <c r="F11">
-        <v>1.001845100923094</v>
+        <v>1.046884846367009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040263406093657</v>
+        <v>1.033028580377324</v>
       </c>
       <c r="J11">
-        <v>1.008865237599517</v>
+        <v>1.032180479487848</v>
       </c>
       <c r="K11">
-        <v>1.017717910511419</v>
+        <v>1.033344204784484</v>
       </c>
       <c r="L11">
-        <v>1.011772594825062</v>
+        <v>1.039502866863812</v>
       </c>
       <c r="M11">
-        <v>1.016732305026839</v>
+        <v>1.05041206153644</v>
       </c>
       <c r="N11">
-        <v>1.010297941955369</v>
+        <v>1.033646294161477</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9772872178426431</v>
+        <v>1.025306102549525</v>
       </c>
       <c r="D12">
-        <v>1.00193323826811</v>
+        <v>1.029582245144944</v>
       </c>
       <c r="E12">
-        <v>0.9956977690729526</v>
+        <v>1.035718623395931</v>
       </c>
       <c r="F12">
-        <v>1.000569525220463</v>
+        <v>1.046630657959477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039869382428784</v>
+        <v>1.032979407506803</v>
       </c>
       <c r="J12">
-        <v>1.008084929335419</v>
+        <v>1.032030969225751</v>
       </c>
       <c r="K12">
-        <v>1.017023493971798</v>
+        <v>1.033218601041284</v>
       </c>
       <c r="L12">
-        <v>1.010907859814955</v>
+        <v>1.039331758640525</v>
       </c>
       <c r="M12">
-        <v>1.015685822154009</v>
+        <v>1.05020324501915</v>
       </c>
       <c r="N12">
-        <v>1.009516525564033</v>
+        <v>1.033496571577658</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9775637626770693</v>
+        <v>1.025357007172451</v>
       </c>
       <c r="D13">
-        <v>1.002130274799279</v>
+        <v>1.029619043418305</v>
       </c>
       <c r="E13">
-        <v>0.9959325795118146</v>
+        <v>1.035765144376293</v>
       </c>
       <c r="F13">
-        <v>1.000843794599969</v>
+        <v>1.046685176698132</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039954229106433</v>
+        <v>1.032989969578708</v>
       </c>
       <c r="J13">
-        <v>1.00825276079548</v>
+        <v>1.032063042638344</v>
       </c>
       <c r="K13">
-        <v>1.017172878436192</v>
+        <v>1.033245550493895</v>
       </c>
       <c r="L13">
-        <v>1.011093824567932</v>
+        <v>1.039368462280765</v>
       </c>
       <c r="M13">
-        <v>1.015910867030266</v>
+        <v>1.050248036380736</v>
       </c>
       <c r="N13">
-        <v>1.009684595364018</v>
+        <v>1.033528690538176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9784671185783657</v>
+        <v>1.025523807438835</v>
       </c>
       <c r="D14">
-        <v>1.002774010985429</v>
+        <v>1.02973961062708</v>
       </c>
       <c r="E14">
-        <v>0.9966998567465472</v>
+        <v>1.035917592926304</v>
       </c>
       <c r="F14">
-        <v>1.001739955104683</v>
+        <v>1.046863832578888</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040230983101795</v>
+        <v>1.033024522190701</v>
       </c>
       <c r="J14">
-        <v>1.008800940401845</v>
+        <v>1.032168122255597</v>
       </c>
       <c r="K14">
-        <v>1.017660702907658</v>
+        <v>1.033333825507234</v>
       </c>
       <c r="L14">
-        <v>1.01170132940738</v>
+        <v>1.039488723161598</v>
       </c>
       <c r="M14">
-        <v>1.016646058741581</v>
+        <v>1.050394800478227</v>
       </c>
       <c r="N14">
-        <v>1.010233553448301</v>
+        <v>1.033633919380539</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9790216071929768</v>
+        <v>1.025626584311328</v>
       </c>
       <c r="D15">
-        <v>1.003169217596887</v>
+        <v>1.029813892164753</v>
       </c>
       <c r="E15">
-        <v>0.9971710089353488</v>
+        <v>1.03601153611407</v>
       </c>
       <c r="F15">
-        <v>1.002290207748914</v>
+        <v>1.046973924563623</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040400546776739</v>
+        <v>1.033045769240799</v>
       </c>
       <c r="J15">
-        <v>1.009137375073384</v>
+        <v>1.032232856613814</v>
       </c>
       <c r="K15">
-        <v>1.017960016836545</v>
+        <v>1.033388194075928</v>
       </c>
       <c r="L15">
-        <v>1.012074248276452</v>
+        <v>1.039562818834177</v>
       </c>
       <c r="M15">
-        <v>1.017097374753319</v>
+        <v>1.05048522810345</v>
       </c>
       <c r="N15">
-        <v>1.010570465895664</v>
+        <v>1.033698745668969</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9822175953524918</v>
+        <v>1.026224877084013</v>
       </c>
       <c r="D16">
-        <v>1.005448195312441</v>
+        <v>1.030246182374915</v>
       </c>
       <c r="E16">
-        <v>0.9998894889161776</v>
+        <v>1.036558548308203</v>
       </c>
       <c r="F16">
-        <v>1.005464478471279</v>
+        <v>1.047614954176964</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04137312305344</v>
+        <v>1.033168795234538</v>
       </c>
       <c r="J16">
-        <v>1.011075837562575</v>
+        <v>1.03260950574696</v>
       </c>
       <c r="K16">
-        <v>1.019683382003997</v>
+        <v>1.033704327764881</v>
       </c>
       <c r="L16">
-        <v>1.014224055348421</v>
+        <v>1.039994071421994</v>
       </c>
       <c r="M16">
-        <v>1.019699376143428</v>
+        <v>1.051011577017349</v>
       </c>
       <c r="N16">
-        <v>1.012511681223933</v>
+        <v>1.034075929687086</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.984195427837234</v>
+        <v>1.026600246456671</v>
       </c>
       <c r="D17">
-        <v>1.006859397678848</v>
+        <v>1.030517292383015</v>
       </c>
       <c r="E17">
-        <v>1.001574247531287</v>
+        <v>1.036901869527246</v>
       </c>
       <c r="F17">
-        <v>1.007431196446885</v>
+        <v>1.048017271652955</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041970762966796</v>
+        <v>1.033245401156879</v>
       </c>
       <c r="J17">
-        <v>1.01227479952681</v>
+        <v>1.032845650233389</v>
       </c>
       <c r="K17">
-        <v>1.020748216320676</v>
+        <v>1.033902352058733</v>
       </c>
       <c r="L17">
-        <v>1.015554730673798</v>
+        <v>1.040264569822235</v>
       </c>
       <c r="M17">
-        <v>1.021310172476114</v>
+        <v>1.051341759635508</v>
       </c>
       <c r="N17">
-        <v>1.01371234585168</v>
+        <v>1.034312409525772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9853396317461597</v>
+        <v>1.02681922031104</v>
       </c>
       <c r="D18">
-        <v>1.00767607855359</v>
+        <v>1.030675406334225</v>
       </c>
       <c r="E18">
-        <v>1.00254975913888</v>
+        <v>1.037102192909293</v>
       </c>
       <c r="F18">
-        <v>1.008569791224117</v>
+        <v>1.048252014377097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042314958303277</v>
+        <v>1.033289880286693</v>
       </c>
       <c r="J18">
-        <v>1.012968164714901</v>
+        <v>1.032983346714568</v>
       </c>
       <c r="K18">
-        <v>1.021363615403767</v>
+        <v>1.034017755813837</v>
       </c>
       <c r="L18">
-        <v>1.016324625085671</v>
+        <v>1.040422341319007</v>
       </c>
       <c r="M18">
-        <v>1.02224222052782</v>
+        <v>1.051534355729453</v>
       </c>
       <c r="N18">
-        <v>1.014406695697869</v>
+        <v>1.034450301551749</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9857282007782822</v>
+        <v>1.026893889341296</v>
       </c>
       <c r="D19">
-        <v>1.007953466377228</v>
+        <v>1.030729315688202</v>
       </c>
       <c r="E19">
-        <v>1.002881183838873</v>
+        <v>1.037170509835362</v>
       </c>
       <c r="F19">
-        <v>1.008956593142063</v>
+        <v>1.048332068739611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042431581612606</v>
+        <v>1.033305011934102</v>
       </c>
       <c r="J19">
-        <v>1.013203585834755</v>
+        <v>1.033030290407948</v>
       </c>
       <c r="K19">
-        <v>1.021572495854647</v>
+        <v>1.034057088445628</v>
       </c>
       <c r="L19">
-        <v>1.016586091439283</v>
+        <v>1.040476136340894</v>
       </c>
       <c r="M19">
-        <v>1.022558770659396</v>
+        <v>1.051600027039091</v>
       </c>
       <c r="N19">
-        <v>1.014642451142715</v>
+        <v>1.034497311910558</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9839842067392812</v>
+        <v>1.02655997005264</v>
       </c>
       <c r="D20">
-        <v>1.006708659657471</v>
+        <v>1.030488206897529</v>
       </c>
       <c r="E20">
-        <v>1.001394235864329</v>
+        <v>1.036865027169765</v>
       </c>
       <c r="F20">
-        <v>1.007221076791387</v>
+        <v>1.047974098746961</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041907098568433</v>
+        <v>1.033237203143238</v>
       </c>
       <c r="J20">
-        <v>1.012146783006992</v>
+        <v>1.03282031856611</v>
       </c>
       <c r="K20">
-        <v>1.0206345622596</v>
+        <v>1.033881116311521</v>
       </c>
       <c r="L20">
-        <v>1.015412613538746</v>
+        <v>1.040235548481843</v>
       </c>
       <c r="M20">
-        <v>1.021138129655361</v>
+        <v>1.051306333522119</v>
       </c>
       <c r="N20">
-        <v>1.013584147533721</v>
+        <v>1.034287041884621</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9782015416398473</v>
+        <v>1.025474687724452</v>
       </c>
       <c r="D21">
-        <v>1.002584743606471</v>
+        <v>1.029704107399211</v>
       </c>
       <c r="E21">
-        <v>0.9964742456993251</v>
+        <v>1.035872697583704</v>
       </c>
       <c r="F21">
-        <v>1.001476455733188</v>
+        <v>1.046811219498383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040149685098862</v>
+        <v>1.033014356046793</v>
       </c>
       <c r="J21">
-        <v>1.008639790420139</v>
+        <v>1.032137180730557</v>
       </c>
       <c r="K21">
-        <v>1.017517312134824</v>
+        <v>1.033307835001884</v>
       </c>
       <c r="L21">
-        <v>1.011522723868877</v>
+        <v>1.039453309541774</v>
       </c>
       <c r="M21">
-        <v>1.01642991009381</v>
+        <v>1.050351581811971</v>
       </c>
       <c r="N21">
-        <v>1.010072174615137</v>
+        <v>1.033602933914983</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9744748060435688</v>
+        <v>1.02479257707838</v>
       </c>
       <c r="D22">
-        <v>0.9999302593000565</v>
+        <v>1.029210941707778</v>
       </c>
       <c r="E22">
-        <v>0.9933118196652785</v>
+        <v>1.035249417446781</v>
       </c>
       <c r="F22">
-        <v>0.9977821795554397</v>
+        <v>1.046080777771126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039003302931335</v>
+        <v>1.032872410946751</v>
       </c>
       <c r="J22">
-        <v>1.00637769434778</v>
+        <v>1.031707286064051</v>
       </c>
       <c r="K22">
-        <v>1.015503097893941</v>
+        <v>1.032946491011613</v>
       </c>
       <c r="L22">
-        <v>1.00901694534089</v>
+        <v>1.038961439469003</v>
       </c>
       <c r="M22">
-        <v>1.013397700306375</v>
+        <v>1.049751352868188</v>
       </c>
       <c r="N22">
-        <v>1.007806866106889</v>
+        <v>1.033172428748742</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.976459342104654</v>
+        <v>1.025154153003958</v>
       </c>
       <c r="D23">
-        <v>1.001343469525189</v>
+        <v>1.029472393998332</v>
       </c>
       <c r="E23">
-        <v>0.9949950452309236</v>
+        <v>1.035579769338137</v>
       </c>
       <c r="F23">
-        <v>0.9997486645607233</v>
+        <v>1.046467931472605</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03961503999453</v>
+        <v>1.032947832224832</v>
       </c>
       <c r="J23">
-        <v>1.007582456577764</v>
+        <v>1.031935217023624</v>
       </c>
       <c r="K23">
-        <v>1.016576163302544</v>
+        <v>1.033138131257872</v>
       </c>
       <c r="L23">
-        <v>1.010351180249569</v>
+        <v>1.039222193141469</v>
       </c>
       <c r="M23">
-        <v>1.015012175117755</v>
+        <v>1.050069539488618</v>
       </c>
       <c r="N23">
-        <v>1.009013339237428</v>
+        <v>1.033400683396422</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9840796775476495</v>
+        <v>1.026578169141718</v>
       </c>
       <c r="D24">
-        <v>1.006776791575542</v>
+        <v>1.030501349438126</v>
       </c>
       <c r="E24">
-        <v>1.001475597529861</v>
+        <v>1.036881674429257</v>
       </c>
       <c r="F24">
-        <v>1.007316047212349</v>
+        <v>1.047993606484619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041935879341542</v>
+        <v>1.033240908102484</v>
       </c>
       <c r="J24">
-        <v>1.012204646573142</v>
+        <v>1.032831764987827</v>
       </c>
       <c r="K24">
-        <v>1.020685935224176</v>
+        <v>1.033890712142072</v>
       </c>
       <c r="L24">
-        <v>1.015476849480917</v>
+        <v>1.040248661993828</v>
       </c>
       <c r="M24">
-        <v>1.021215891538874</v>
+        <v>1.051322341038853</v>
       </c>
       <c r="N24">
-        <v>1.013642093272771</v>
+        <v>1.034298504561569</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9925551708775052</v>
+        <v>1.028231727428399</v>
       </c>
       <c r="D25">
-        <v>1.01283035717111</v>
+        <v>1.031694608680545</v>
       </c>
       <c r="E25">
-        <v>1.008716137083825</v>
+        <v>1.038395202073393</v>
       </c>
       <c r="F25">
-        <v>1.015764100994461</v>
+        <v>1.049767113945675</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044457330491047</v>
+        <v>1.033573009269704</v>
       </c>
       <c r="J25">
-        <v>1.017335707320171</v>
+        <v>1.033870485083777</v>
       </c>
       <c r="K25">
-        <v>1.025232710645641</v>
+        <v>1.034760096184394</v>
       </c>
       <c r="L25">
-        <v>1.021180636453282</v>
+        <v>1.041439597648385</v>
       </c>
       <c r="M25">
-        <v>1.028122530941216</v>
+        <v>1.052776385952476</v>
       </c>
       <c r="N25">
-        <v>1.018780440714602</v>
+        <v>1.035338699759199</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029551440430632</v>
+        <v>0.9990471402849187</v>
       </c>
       <c r="D2">
-        <v>1.032645670186132</v>
+        <v>1.017472565364214</v>
       </c>
       <c r="E2">
-        <v>1.039604559829757</v>
+        <v>1.014286266827106</v>
       </c>
       <c r="F2">
-        <v>1.051184082651919</v>
+        <v>1.022258537528678</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033831422049696</v>
+        <v>1.046338492425057</v>
       </c>
       <c r="J2">
-        <v>1.034697588555688</v>
+        <v>1.021256388621601</v>
       </c>
       <c r="K2">
-        <v>1.035450302334172</v>
+        <v>1.028693730274963</v>
       </c>
       <c r="L2">
-        <v>1.042389274677821</v>
+        <v>1.025550095489007</v>
       </c>
       <c r="M2">
-        <v>1.053936289174165</v>
+        <v>1.033416246231839</v>
       </c>
       <c r="N2">
-        <v>1.03616697781291</v>
+        <v>1.022706689833188</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030510146849641</v>
+        <v>1.003618077649863</v>
       </c>
       <c r="D3">
-        <v>1.033335809851813</v>
+        <v>1.020742804699534</v>
       </c>
       <c r="E3">
-        <v>1.040483903499396</v>
+        <v>1.018221149415542</v>
       </c>
       <c r="F3">
-        <v>1.052214318521658</v>
+        <v>1.026844055226841</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034015289360558</v>
+        <v>1.047632852422278</v>
       </c>
       <c r="J3">
-        <v>1.035297327688827</v>
+        <v>1.024010593822036</v>
       </c>
       <c r="K3">
-        <v>1.035949574867607</v>
+        <v>1.031116982305781</v>
       </c>
       <c r="L3">
-        <v>1.043078688937177</v>
+        <v>1.028626077067376</v>
       </c>
       <c r="M3">
-        <v>1.054778560566304</v>
+        <v>1.037144606962261</v>
       </c>
       <c r="N3">
-        <v>1.036767568644409</v>
+        <v>1.02546480632092</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031130712055624</v>
+        <v>1.006513527288535</v>
       </c>
       <c r="D4">
-        <v>1.033782176940289</v>
+        <v>1.02281468398787</v>
       </c>
       <c r="E4">
-        <v>1.041053466987981</v>
+        <v>1.020719427722494</v>
       </c>
       <c r="F4">
-        <v>1.052881588695312</v>
+        <v>1.029754463194573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034132518772976</v>
+        <v>1.048438447403068</v>
       </c>
       <c r="J4">
-        <v>1.035685019294703</v>
+        <v>1.025752071278806</v>
       </c>
       <c r="K4">
-        <v>1.036271763254257</v>
+        <v>1.032645338056883</v>
       </c>
       <c r="L4">
-        <v>1.043524718803655</v>
+        <v>1.030574056999086</v>
       </c>
       <c r="M4">
-        <v>1.055323598082971</v>
+        <v>1.03950656621412</v>
       </c>
       <c r="N4">
-        <v>1.037155810816834</v>
+        <v>1.027208756875429</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031391649130359</v>
+        <v>1.007716404450212</v>
       </c>
       <c r="D5">
-        <v>1.033969780623271</v>
+        <v>1.02367544237394</v>
       </c>
       <c r="E5">
-        <v>1.041293046670854</v>
+        <v>1.021758642199882</v>
       </c>
       <c r="F5">
-        <v>1.053162260936616</v>
+        <v>1.030964897131125</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034181383615067</v>
+        <v>1.048769633038844</v>
       </c>
       <c r="J5">
-        <v>1.035847913108804</v>
+        <v>1.026474749907677</v>
       </c>
       <c r="K5">
-        <v>1.036407000992311</v>
+        <v>1.033278628503273</v>
       </c>
       <c r="L5">
-        <v>1.043712212763193</v>
+        <v>1.031383165290771</v>
       </c>
       <c r="M5">
-        <v>1.055552738439669</v>
+        <v>1.040487829994988</v>
       </c>
       <c r="N5">
-        <v>1.037318935958835</v>
+        <v>1.027932461790846</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031435464609703</v>
+        <v>1.007917545163984</v>
       </c>
       <c r="D6">
-        <v>1.034001277193481</v>
+        <v>1.023819374817328</v>
       </c>
       <c r="E6">
-        <v>1.041333281049314</v>
+        <v>1.02193249332878</v>
       </c>
       <c r="F6">
-        <v>1.053209395915862</v>
+        <v>1.031167379526908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034189563683093</v>
+        <v>1.04882480606156</v>
       </c>
       <c r="J6">
-        <v>1.035875258293221</v>
+        <v>1.026595545783107</v>
       </c>
       <c r="K6">
-        <v>1.036429695646351</v>
+        <v>1.033384426854754</v>
       </c>
       <c r="L6">
-        <v>1.043743692801303</v>
+        <v>1.03151845127772</v>
       </c>
       <c r="M6">
-        <v>1.055591212471389</v>
+        <v>1.040651913306216</v>
       </c>
       <c r="N6">
-        <v>1.037346319976551</v>
+        <v>1.028053429210274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031134198508301</v>
+        <v>1.006529655969131</v>
       </c>
       <c r="D7">
-        <v>1.033784683904225</v>
+        <v>1.022826225386649</v>
       </c>
       <c r="E7">
-        <v>1.041056667733611</v>
+        <v>1.020733356713458</v>
       </c>
       <c r="F7">
-        <v>1.052885338456139</v>
+        <v>1.029770687934499</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034133173352232</v>
+        <v>1.048442901931511</v>
       </c>
       <c r="J7">
-        <v>1.035687196251334</v>
+        <v>1.02576176444657</v>
       </c>
       <c r="K7">
-        <v>1.036273571134904</v>
+        <v>1.032653836045831</v>
       </c>
       <c r="L7">
-        <v>1.043527224175031</v>
+        <v>1.030584906520668</v>
       </c>
       <c r="M7">
-        <v>1.055326659842996</v>
+        <v>1.039519723387495</v>
       </c>
       <c r="N7">
-        <v>1.037157990864993</v>
+        <v>1.027218463808603</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029875394161851</v>
+        <v>1.000605129880612</v>
       </c>
       <c r="D8">
-        <v>1.032878946630497</v>
+        <v>1.018587103383583</v>
       </c>
       <c r="E8">
-        <v>1.039901619590535</v>
+        <v>1.015626231177374</v>
       </c>
       <c r="F8">
-        <v>1.051532122820806</v>
+        <v>1.023820277101677</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033893921805998</v>
+        <v>1.046782640843231</v>
       </c>
       <c r="J8">
-        <v>1.034900351327207</v>
+        <v>1.022195793157781</v>
       </c>
       <c r="K8">
-        <v>1.035619214293819</v>
+        <v>1.029521051665834</v>
       </c>
       <c r="L8">
-        <v>1.042622278844136</v>
+        <v>1.026598614985513</v>
       </c>
       <c r="M8">
-        <v>1.054220931601241</v>
+        <v>1.034686972197474</v>
       </c>
       <c r="N8">
-        <v>1.036370028530821</v>
+        <v>1.023647428431561</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027658922334064</v>
+        <v>0.9896631302827699</v>
       </c>
       <c r="D9">
-        <v>1.031281451451806</v>
+        <v>1.010763689590404</v>
       </c>
       <c r="E9">
-        <v>1.037870686233235</v>
+        <v>1.006241549133525</v>
       </c>
       <c r="F9">
-        <v>1.049152521079001</v>
+        <v>1.012877604356905</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033458993086386</v>
+        <v>1.043604727860475</v>
       </c>
       <c r="J9">
-        <v>1.033510958317053</v>
+        <v>1.015586265911294</v>
       </c>
       <c r="K9">
-        <v>1.034459498964473</v>
+        <v>1.023684514352531</v>
       </c>
       <c r="L9">
-        <v>1.041027173643551</v>
+        <v>1.0192341667661</v>
       </c>
       <c r="M9">
-        <v>1.052272782248971</v>
+        <v>1.025765150218661</v>
       </c>
       <c r="N9">
-        <v>1.034978662423227</v>
+        <v>1.017028514898261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026182460433297</v>
+        <v>0.9819927856247664</v>
       </c>
       <c r="D10">
-        <v>1.030215541666793</v>
+        <v>1.005287831780149</v>
       </c>
       <c r="E10">
-        <v>1.036519759191306</v>
+        <v>0.9996981093888198</v>
       </c>
       <c r="F10">
-        <v>1.047569498971449</v>
+        <v>1.00524104516222</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033160110464511</v>
+        <v>1.041304983060743</v>
       </c>
       <c r="J10">
-        <v>1.032582813400236</v>
+        <v>1.010939524838137</v>
       </c>
       <c r="K10">
-        <v>1.033681935540267</v>
+        <v>1.019562264651453</v>
       </c>
       <c r="L10">
-        <v>1.039963501754656</v>
+        <v>1.014072816704013</v>
       </c>
       <c r="M10">
-        <v>1.05097426405748</v>
+        <v>1.01951631133478</v>
       </c>
       <c r="N10">
-        <v>1.034049199434169</v>
+        <v>1.012375174919791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025543425510594</v>
+        <v>0.9785730845518867</v>
       </c>
       <c r="D11">
-        <v>1.029753789977661</v>
+        <v>1.002849532873454</v>
       </c>
       <c r="E11">
-        <v>1.035935524269749</v>
+        <v>0.9967898854673757</v>
       </c>
       <c r="F11">
-        <v>1.046884846367009</v>
+        <v>1.001845100923095</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033028580377324</v>
+        <v>1.040263406093657</v>
       </c>
       <c r="J11">
-        <v>1.032180479487848</v>
+        <v>1.008865237599518</v>
       </c>
       <c r="K11">
-        <v>1.033344204784484</v>
+        <v>1.01771791051142</v>
       </c>
       <c r="L11">
-        <v>1.039502866863812</v>
+        <v>1.011772594825063</v>
       </c>
       <c r="M11">
-        <v>1.05041206153644</v>
+        <v>1.01673230502684</v>
       </c>
       <c r="N11">
-        <v>1.033646294161477</v>
+        <v>1.01029794195537</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025306102549525</v>
+        <v>0.9772872178426432</v>
       </c>
       <c r="D12">
-        <v>1.029582245144944</v>
+        <v>1.001933238268111</v>
       </c>
       <c r="E12">
-        <v>1.035718623395931</v>
+        <v>0.9956977690729529</v>
       </c>
       <c r="F12">
-        <v>1.046630657959477</v>
+        <v>1.000569525220464</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032979407506803</v>
+        <v>1.039869382428784</v>
       </c>
       <c r="J12">
-        <v>1.032030969225751</v>
+        <v>1.008084929335419</v>
       </c>
       <c r="K12">
-        <v>1.033218601041284</v>
+        <v>1.017023493971798</v>
       </c>
       <c r="L12">
-        <v>1.039331758640525</v>
+        <v>1.010907859814955</v>
       </c>
       <c r="M12">
-        <v>1.05020324501915</v>
+        <v>1.015685822154009</v>
       </c>
       <c r="N12">
-        <v>1.033496571577658</v>
+        <v>1.009516525564033</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025357007172451</v>
+        <v>0.9775637626770692</v>
       </c>
       <c r="D13">
-        <v>1.029619043418305</v>
+        <v>1.002130274799279</v>
       </c>
       <c r="E13">
-        <v>1.035765144376293</v>
+        <v>0.9959325795118147</v>
       </c>
       <c r="F13">
-        <v>1.046685176698132</v>
+        <v>1.000843794599969</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032989969578708</v>
+        <v>1.039954229106433</v>
       </c>
       <c r="J13">
-        <v>1.032063042638344</v>
+        <v>1.00825276079548</v>
       </c>
       <c r="K13">
-        <v>1.033245550493895</v>
+        <v>1.017172878436193</v>
       </c>
       <c r="L13">
-        <v>1.039368462280765</v>
+        <v>1.011093824567932</v>
       </c>
       <c r="M13">
-        <v>1.050248036380736</v>
+        <v>1.015910867030266</v>
       </c>
       <c r="N13">
-        <v>1.033528690538176</v>
+        <v>1.009684595364018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025523807438835</v>
+        <v>0.9784671185783664</v>
       </c>
       <c r="D14">
-        <v>1.02973961062708</v>
+        <v>1.00277401098543</v>
       </c>
       <c r="E14">
-        <v>1.035917592926304</v>
+        <v>0.9966998567465477</v>
       </c>
       <c r="F14">
-        <v>1.046863832578888</v>
+        <v>1.001739955104683</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033024522190701</v>
+        <v>1.040230983101795</v>
       </c>
       <c r="J14">
-        <v>1.032168122255597</v>
+        <v>1.008800940401846</v>
       </c>
       <c r="K14">
-        <v>1.033333825507234</v>
+        <v>1.017660702907659</v>
       </c>
       <c r="L14">
-        <v>1.039488723161598</v>
+        <v>1.01170132940738</v>
       </c>
       <c r="M14">
-        <v>1.050394800478227</v>
+        <v>1.016646058741582</v>
       </c>
       <c r="N14">
-        <v>1.033633919380539</v>
+        <v>1.010233553448302</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025626584311328</v>
+        <v>0.9790216071929765</v>
       </c>
       <c r="D15">
-        <v>1.029813892164753</v>
+        <v>1.003169217596887</v>
       </c>
       <c r="E15">
-        <v>1.03601153611407</v>
+        <v>0.9971710089353489</v>
       </c>
       <c r="F15">
-        <v>1.046973924563623</v>
+        <v>1.002290207748914</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033045769240799</v>
+        <v>1.040400546776739</v>
       </c>
       <c r="J15">
-        <v>1.032232856613814</v>
+        <v>1.009137375073384</v>
       </c>
       <c r="K15">
-        <v>1.033388194075928</v>
+        <v>1.017960016836545</v>
       </c>
       <c r="L15">
-        <v>1.039562818834177</v>
+        <v>1.012074248276452</v>
       </c>
       <c r="M15">
-        <v>1.05048522810345</v>
+        <v>1.017097374753319</v>
       </c>
       <c r="N15">
-        <v>1.033698745668969</v>
+        <v>1.010570465895663</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026224877084013</v>
+        <v>0.982217595352492</v>
       </c>
       <c r="D16">
-        <v>1.030246182374915</v>
+        <v>1.005448195312441</v>
       </c>
       <c r="E16">
-        <v>1.036558548308203</v>
+        <v>0.9998894889161778</v>
       </c>
       <c r="F16">
-        <v>1.047614954176964</v>
+        <v>1.005464478471279</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033168795234538</v>
+        <v>1.04137312305344</v>
       </c>
       <c r="J16">
-        <v>1.03260950574696</v>
+        <v>1.011075837562575</v>
       </c>
       <c r="K16">
-        <v>1.033704327764881</v>
+        <v>1.019683382003997</v>
       </c>
       <c r="L16">
-        <v>1.039994071421994</v>
+        <v>1.014224055348421</v>
       </c>
       <c r="M16">
-        <v>1.051011577017349</v>
+        <v>1.019699376143428</v>
       </c>
       <c r="N16">
-        <v>1.034075929687086</v>
+        <v>1.012511681223934</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026600246456671</v>
+        <v>0.984195427837235</v>
       </c>
       <c r="D17">
-        <v>1.030517292383015</v>
+        <v>1.006859397678849</v>
       </c>
       <c r="E17">
-        <v>1.036901869527246</v>
+        <v>1.001574247531288</v>
       </c>
       <c r="F17">
-        <v>1.048017271652955</v>
+        <v>1.007431196446886</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033245401156879</v>
+        <v>1.041970762966796</v>
       </c>
       <c r="J17">
-        <v>1.032845650233389</v>
+        <v>1.01227479952681</v>
       </c>
       <c r="K17">
-        <v>1.033902352058733</v>
+        <v>1.020748216320676</v>
       </c>
       <c r="L17">
-        <v>1.040264569822235</v>
+        <v>1.015554730673799</v>
       </c>
       <c r="M17">
-        <v>1.051341759635508</v>
+        <v>1.021310172476115</v>
       </c>
       <c r="N17">
-        <v>1.034312409525772</v>
+        <v>1.013712345851681</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02681922031104</v>
+        <v>0.9853396317461595</v>
       </c>
       <c r="D18">
-        <v>1.030675406334225</v>
+        <v>1.00767607855359</v>
       </c>
       <c r="E18">
-        <v>1.037102192909293</v>
+        <v>1.00254975913888</v>
       </c>
       <c r="F18">
-        <v>1.048252014377097</v>
+        <v>1.008569791224116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033289880286693</v>
+        <v>1.042314958303277</v>
       </c>
       <c r="J18">
-        <v>1.032983346714568</v>
+        <v>1.012968164714901</v>
       </c>
       <c r="K18">
-        <v>1.034017755813837</v>
+        <v>1.021363615403767</v>
       </c>
       <c r="L18">
-        <v>1.040422341319007</v>
+        <v>1.01632462508567</v>
       </c>
       <c r="M18">
-        <v>1.051534355729453</v>
+        <v>1.02224222052782</v>
       </c>
       <c r="N18">
-        <v>1.034450301551749</v>
+        <v>1.014406695697868</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026893889341296</v>
+        <v>0.9857282007782826</v>
       </c>
       <c r="D19">
-        <v>1.030729315688202</v>
+        <v>1.007953466377229</v>
       </c>
       <c r="E19">
-        <v>1.037170509835362</v>
+        <v>1.002881183838874</v>
       </c>
       <c r="F19">
-        <v>1.048332068739611</v>
+        <v>1.008956593142063</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033305011934102</v>
+        <v>1.042431581612607</v>
       </c>
       <c r="J19">
-        <v>1.033030290407948</v>
+        <v>1.013203585834756</v>
       </c>
       <c r="K19">
-        <v>1.034057088445628</v>
+        <v>1.021572495854648</v>
       </c>
       <c r="L19">
-        <v>1.040476136340894</v>
+        <v>1.016586091439283</v>
       </c>
       <c r="M19">
-        <v>1.051600027039091</v>
+        <v>1.022558770659397</v>
       </c>
       <c r="N19">
-        <v>1.034497311910558</v>
+        <v>1.014642451142717</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02655997005264</v>
+        <v>0.9839842067392817</v>
       </c>
       <c r="D20">
-        <v>1.030488206897529</v>
+        <v>1.006708659657471</v>
       </c>
       <c r="E20">
-        <v>1.036865027169765</v>
+        <v>1.00139423586433</v>
       </c>
       <c r="F20">
-        <v>1.047974098746961</v>
+        <v>1.007221076791388</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033237203143238</v>
+        <v>1.041907098568434</v>
       </c>
       <c r="J20">
-        <v>1.03282031856611</v>
+        <v>1.012146783006993</v>
       </c>
       <c r="K20">
-        <v>1.033881116311521</v>
+        <v>1.0206345622596</v>
       </c>
       <c r="L20">
-        <v>1.040235548481843</v>
+        <v>1.015412613538747</v>
       </c>
       <c r="M20">
-        <v>1.051306333522119</v>
+        <v>1.021138129655362</v>
       </c>
       <c r="N20">
-        <v>1.034287041884621</v>
+        <v>1.013584147533721</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025474687724452</v>
+        <v>0.9782015416398476</v>
       </c>
       <c r="D21">
-        <v>1.029704107399211</v>
+        <v>1.002584743606472</v>
       </c>
       <c r="E21">
-        <v>1.035872697583704</v>
+        <v>0.9964742456993255</v>
       </c>
       <c r="F21">
-        <v>1.046811219498383</v>
+        <v>1.001476455733189</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033014356046793</v>
+        <v>1.040149685098862</v>
       </c>
       <c r="J21">
-        <v>1.032137180730557</v>
+        <v>1.00863979042014</v>
       </c>
       <c r="K21">
-        <v>1.033307835001884</v>
+        <v>1.017517312134824</v>
       </c>
       <c r="L21">
-        <v>1.039453309541774</v>
+        <v>1.011522723868878</v>
       </c>
       <c r="M21">
-        <v>1.050351581811971</v>
+        <v>1.016429910093811</v>
       </c>
       <c r="N21">
-        <v>1.033602933914983</v>
+        <v>1.010072174615137</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02479257707838</v>
+        <v>0.9744748060435683</v>
       </c>
       <c r="D22">
-        <v>1.029210941707778</v>
+        <v>0.9999302593000561</v>
       </c>
       <c r="E22">
-        <v>1.035249417446781</v>
+        <v>0.9933118196652777</v>
       </c>
       <c r="F22">
-        <v>1.046080777771126</v>
+        <v>0.9977821795554388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032872410946751</v>
+        <v>1.039003302931334</v>
       </c>
       <c r="J22">
-        <v>1.031707286064051</v>
+        <v>1.006377694347779</v>
       </c>
       <c r="K22">
-        <v>1.032946491011613</v>
+        <v>1.01550309789394</v>
       </c>
       <c r="L22">
-        <v>1.038961439469003</v>
+        <v>1.00901694534089</v>
       </c>
       <c r="M22">
-        <v>1.049751352868188</v>
+        <v>1.013397700306374</v>
       </c>
       <c r="N22">
-        <v>1.033172428748742</v>
+        <v>1.007806866106888</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025154153003958</v>
+        <v>0.9764593421046535</v>
       </c>
       <c r="D23">
-        <v>1.029472393998332</v>
+        <v>1.001343469525189</v>
       </c>
       <c r="E23">
-        <v>1.035579769338137</v>
+        <v>0.9949950452309233</v>
       </c>
       <c r="F23">
-        <v>1.046467931472605</v>
+        <v>0.9997486645607226</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032947832224832</v>
+        <v>1.03961503999453</v>
       </c>
       <c r="J23">
-        <v>1.031935217023624</v>
+        <v>1.007582456577764</v>
       </c>
       <c r="K23">
-        <v>1.033138131257872</v>
+        <v>1.016576163302544</v>
       </c>
       <c r="L23">
-        <v>1.039222193141469</v>
+        <v>1.010351180249569</v>
       </c>
       <c r="M23">
-        <v>1.050069539488618</v>
+        <v>1.015012175117755</v>
       </c>
       <c r="N23">
-        <v>1.033400683396422</v>
+        <v>1.009013339237427</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026578169141718</v>
+        <v>0.9840796775476494</v>
       </c>
       <c r="D24">
-        <v>1.030501349438126</v>
+        <v>1.006776791575541</v>
       </c>
       <c r="E24">
-        <v>1.036881674429257</v>
+        <v>1.001475597529861</v>
       </c>
       <c r="F24">
-        <v>1.047993606484619</v>
+        <v>1.007316047212349</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033240908102484</v>
+        <v>1.041935879341542</v>
       </c>
       <c r="J24">
-        <v>1.032831764987827</v>
+        <v>1.012204646573142</v>
       </c>
       <c r="K24">
-        <v>1.033890712142072</v>
+        <v>1.020685935224176</v>
       </c>
       <c r="L24">
-        <v>1.040248661993828</v>
+        <v>1.015476849480917</v>
       </c>
       <c r="M24">
-        <v>1.051322341038853</v>
+        <v>1.021215891538874</v>
       </c>
       <c r="N24">
-        <v>1.034298504561569</v>
+        <v>1.013642093272771</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028231727428399</v>
+        <v>0.9925551708775049</v>
       </c>
       <c r="D25">
-        <v>1.031694608680545</v>
+        <v>1.012830357171109</v>
       </c>
       <c r="E25">
-        <v>1.038395202073393</v>
+        <v>1.008716137083824</v>
       </c>
       <c r="F25">
-        <v>1.049767113945675</v>
+        <v>1.015764100994461</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033573009269704</v>
+        <v>1.044457330491046</v>
       </c>
       <c r="J25">
-        <v>1.033870485083777</v>
+        <v>1.017335707320171</v>
       </c>
       <c r="K25">
-        <v>1.034760096184394</v>
+        <v>1.02523271064564</v>
       </c>
       <c r="L25">
-        <v>1.041439597648385</v>
+        <v>1.021180636453282</v>
       </c>
       <c r="M25">
-        <v>1.052776385952476</v>
+        <v>1.028122530941216</v>
       </c>
       <c r="N25">
-        <v>1.035338699759199</v>
+        <v>1.018780440714602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9990471402849187</v>
+        <v>0.9918487393671204</v>
       </c>
       <c r="D2">
-        <v>1.017472565364214</v>
+        <v>1.015101527873124</v>
       </c>
       <c r="E2">
-        <v>1.014286266827106</v>
-      </c>
-      <c r="F2">
-        <v>1.022258537528678</v>
+        <v>0.9994992850936072</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046338492425057</v>
+        <v>1.044180166153253</v>
       </c>
       <c r="J2">
-        <v>1.021256388621601</v>
+        <v>1.014276016988462</v>
       </c>
       <c r="K2">
-        <v>1.028693730274963</v>
+        <v>1.026354408353326</v>
       </c>
       <c r="L2">
-        <v>1.025550095489007</v>
-      </c>
-      <c r="M2">
-        <v>1.033416246231839</v>
+        <v>1.010965600080242</v>
       </c>
       <c r="N2">
-        <v>1.022706689833188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008901499631156</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029704954102234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003618077649863</v>
+        <v>0.9953783368520773</v>
       </c>
       <c r="D3">
-        <v>1.020742804699534</v>
+        <v>1.017415029718868</v>
       </c>
       <c r="E3">
-        <v>1.018221149415542</v>
-      </c>
-      <c r="F3">
-        <v>1.026844055226841</v>
+        <v>1.002231588191761</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047632852422278</v>
+        <v>1.04485594736001</v>
       </c>
       <c r="J3">
-        <v>1.024010593822036</v>
+        <v>1.015995790927691</v>
       </c>
       <c r="K3">
-        <v>1.031116982305781</v>
+        <v>1.027829827492768</v>
       </c>
       <c r="L3">
-        <v>1.028626077067376</v>
-      </c>
-      <c r="M3">
-        <v>1.037144606962261</v>
+        <v>1.012835994841127</v>
       </c>
       <c r="N3">
-        <v>1.02546480632092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009467063362027</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030745531567602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006513527288535</v>
+        <v>0.9976211662531578</v>
       </c>
       <c r="D4">
-        <v>1.02281468398787</v>
+        <v>1.0188854370615</v>
       </c>
       <c r="E4">
-        <v>1.020719427722494</v>
-      </c>
-      <c r="F4">
-        <v>1.029754463194573</v>
+        <v>1.003973742662363</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048438447403068</v>
+        <v>1.045270471520462</v>
       </c>
       <c r="J4">
-        <v>1.025752071278806</v>
+        <v>1.017085919208335</v>
       </c>
       <c r="K4">
-        <v>1.032645338056883</v>
+        <v>1.028761151926772</v>
       </c>
       <c r="L4">
-        <v>1.030574056999086</v>
-      </c>
-      <c r="M4">
-        <v>1.03950656621412</v>
+        <v>1.014024443542415</v>
       </c>
       <c r="N4">
-        <v>1.027208756875429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009825646272931</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031404979545872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007716404450212</v>
+        <v>0.9985563183154831</v>
       </c>
       <c r="D5">
-        <v>1.02367544237394</v>
+        <v>1.019500274343217</v>
       </c>
       <c r="E5">
-        <v>1.021758642199882</v>
-      </c>
-      <c r="F5">
-        <v>1.030964897131125</v>
+        <v>1.004701739332053</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048769633038844</v>
+        <v>1.045440826963626</v>
       </c>
       <c r="J5">
-        <v>1.026474749907677</v>
+        <v>1.017540673382213</v>
       </c>
       <c r="K5">
-        <v>1.033278628503273</v>
+        <v>1.029150063330554</v>
       </c>
       <c r="L5">
-        <v>1.031383165290771</v>
-      </c>
-      <c r="M5">
-        <v>1.040487829994988</v>
+        <v>1.014520563016671</v>
       </c>
       <c r="N5">
-        <v>1.027932461790846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009975433773127</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031687230505427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007917545163984</v>
+        <v>0.9987149920775737</v>
       </c>
       <c r="D6">
-        <v>1.023819374817328</v>
+        <v>1.019606681662998</v>
       </c>
       <c r="E6">
-        <v>1.02193249332878</v>
-      </c>
-      <c r="F6">
-        <v>1.031167379526908</v>
+        <v>1.004825589924574</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04882480606156</v>
+        <v>1.045470913989854</v>
       </c>
       <c r="J6">
-        <v>1.026595545783107</v>
+        <v>1.017618875973585</v>
       </c>
       <c r="K6">
-        <v>1.033384426854754</v>
+        <v>1.029218539718372</v>
       </c>
       <c r="L6">
-        <v>1.03151845127772</v>
-      </c>
-      <c r="M6">
-        <v>1.040651913306216</v>
+        <v>1.014605510547716</v>
       </c>
       <c r="N6">
-        <v>1.028053429210274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010001415028366</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.031744493173526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006529655969131</v>
+        <v>0.9976395605951927</v>
       </c>
       <c r="D7">
-        <v>1.022826225386649</v>
+        <v>1.018903060932134</v>
       </c>
       <c r="E7">
-        <v>1.020733356713458</v>
-      </c>
-      <c r="F7">
-        <v>1.029770687934499</v>
+        <v>1.00398871028785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048442901931511</v>
+        <v>1.045277540181569</v>
       </c>
       <c r="J7">
-        <v>1.02576176444657</v>
+        <v>1.017097727113312</v>
       </c>
       <c r="K7">
-        <v>1.032653836045831</v>
+        <v>1.028775646008094</v>
       </c>
       <c r="L7">
-        <v>1.030584906520668</v>
-      </c>
-      <c r="M7">
-        <v>1.039519723387495</v>
+        <v>1.014036246924495</v>
       </c>
       <c r="N7">
-        <v>1.027218463808603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009830135607598</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031435568120587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000605129880612</v>
+        <v>0.9930572075824637</v>
       </c>
       <c r="D8">
-        <v>1.018587103383583</v>
+        <v>1.015900152237742</v>
       </c>
       <c r="E8">
-        <v>1.015626231177374</v>
-      </c>
-      <c r="F8">
-        <v>1.023820277101677</v>
+        <v>1.000434330138509</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046782640843231</v>
+        <v>1.044418971656494</v>
       </c>
       <c r="J8">
-        <v>1.022195793157781</v>
+        <v>1.014868740439568</v>
       </c>
       <c r="K8">
-        <v>1.029521051665834</v>
+        <v>1.026868968458929</v>
       </c>
       <c r="L8">
-        <v>1.026598614985513</v>
-      </c>
-      <c r="M8">
-        <v>1.034686972197474</v>
+        <v>1.011608421358825</v>
       </c>
       <c r="N8">
-        <v>1.023647428431561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009097175971438</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030091976857753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9896631302827699</v>
+        <v>0.984646360268258</v>
       </c>
       <c r="D9">
-        <v>1.010763689590404</v>
+        <v>1.010384688408487</v>
       </c>
       <c r="E9">
-        <v>1.006241549133525</v>
-      </c>
-      <c r="F9">
-        <v>1.012877604356905</v>
+        <v>0.9939579340215691</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043604727860475</v>
+        <v>1.042721959358113</v>
       </c>
       <c r="J9">
-        <v>1.015586265911294</v>
+        <v>1.010753193502957</v>
       </c>
       <c r="K9">
-        <v>1.023684514352531</v>
+        <v>1.023311498551117</v>
       </c>
       <c r="L9">
-        <v>1.0192341667661</v>
-      </c>
-      <c r="M9">
-        <v>1.025765150218661</v>
+        <v>1.007149806123142</v>
       </c>
       <c r="N9">
-        <v>1.017028514898261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007743533698105</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027573336909257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9819927856247664</v>
+        <v>0.9788015777364849</v>
       </c>
       <c r="D10">
-        <v>1.005287831780149</v>
+        <v>1.006560043640737</v>
       </c>
       <c r="E10">
-        <v>0.9996981093888198</v>
-      </c>
-      <c r="F10">
-        <v>1.00524104516222</v>
+        <v>0.9894927862611599</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041304983060743</v>
+        <v>1.041468945365383</v>
       </c>
       <c r="J10">
-        <v>1.010939524838137</v>
+        <v>1.007882251860678</v>
       </c>
       <c r="K10">
-        <v>1.019562264651453</v>
+        <v>1.020811856086939</v>
       </c>
       <c r="L10">
-        <v>1.014072816704013</v>
-      </c>
-      <c r="M10">
-        <v>1.01951631133478</v>
+        <v>1.004054379045303</v>
       </c>
       <c r="N10">
-        <v>1.012375174919791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006799988189615</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025822916120532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9785730845518867</v>
+        <v>0.9762152120368554</v>
       </c>
       <c r="D11">
-        <v>1.002849532873454</v>
+        <v>1.004875546912576</v>
       </c>
       <c r="E11">
-        <v>0.9967898854673757</v>
-      </c>
-      <c r="F11">
-        <v>1.001845100923095</v>
+        <v>0.9875265732959638</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040263406093657</v>
+        <v>1.040901001535125</v>
       </c>
       <c r="J11">
-        <v>1.008865237599518</v>
+        <v>1.006612069366665</v>
       </c>
       <c r="K11">
-        <v>1.01771791051142</v>
+        <v>1.019706099578338</v>
       </c>
       <c r="L11">
-        <v>1.011772594825063</v>
-      </c>
-      <c r="M11">
-        <v>1.01673230502684</v>
+        <v>1.002687617201805</v>
       </c>
       <c r="N11">
-        <v>1.01029794195537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00638351637507</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025074356972233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9772872178426432</v>
+        <v>0.9752416225946726</v>
       </c>
       <c r="D12">
-        <v>1.001933238268111</v>
+        <v>1.004238590975949</v>
       </c>
       <c r="E12">
-        <v>0.9956977690729529</v>
-      </c>
-      <c r="F12">
-        <v>1.000569525220464</v>
+        <v>0.9867873450201087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039869382428784</v>
+        <v>1.040682704743471</v>
       </c>
       <c r="J12">
-        <v>1.008084929335419</v>
+        <v>1.006132061569915</v>
       </c>
       <c r="K12">
-        <v>1.017023493971798</v>
+        <v>1.01928503432003</v>
       </c>
       <c r="L12">
-        <v>1.010907859814955</v>
-      </c>
-      <c r="M12">
-        <v>1.015685822154009</v>
+        <v>1.002172133285909</v>
       </c>
       <c r="N12">
-        <v>1.009516525564033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006225683357249</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.024776642577659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9775637626770692</v>
+        <v>0.9754502729565997</v>
       </c>
       <c r="D13">
-        <v>1.002130274799279</v>
+        <v>1.004374453422133</v>
       </c>
       <c r="E13">
-        <v>0.9959325795118147</v>
-      </c>
-      <c r="F13">
-        <v>1.000843794599969</v>
+        <v>0.9869456167203704</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039954229106433</v>
+        <v>1.040729217029033</v>
       </c>
       <c r="J13">
-        <v>1.00825276079548</v>
+        <v>1.006234655549605</v>
       </c>
       <c r="K13">
-        <v>1.017172878436193</v>
+        <v>1.019374568952948</v>
       </c>
       <c r="L13">
-        <v>1.011093824567932</v>
-      </c>
-      <c r="M13">
-        <v>1.015910867030266</v>
+        <v>1.002282374896316</v>
       </c>
       <c r="N13">
-        <v>1.009684595364018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006259324650312</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.024837420895832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9784671185783664</v>
+        <v>0.976134662812648</v>
       </c>
       <c r="D14">
-        <v>1.00277401098543</v>
+        <v>1.004822572147977</v>
       </c>
       <c r="E14">
-        <v>0.9966998567465477</v>
-      </c>
-      <c r="F14">
-        <v>1.001739955104683</v>
+        <v>0.9874653470781249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040230983101795</v>
+        <v>1.040882826927696</v>
       </c>
       <c r="J14">
-        <v>1.008800940401846</v>
+        <v>1.006572237542381</v>
       </c>
       <c r="K14">
-        <v>1.017660702907659</v>
+        <v>1.019670961598788</v>
       </c>
       <c r="L14">
-        <v>1.01170132940738</v>
-      </c>
-      <c r="M14">
-        <v>1.016646058741582</v>
+        <v>1.002644869245573</v>
       </c>
       <c r="N14">
-        <v>1.010233553448302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006370379509896</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025048430036619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9790216071929765</v>
+        <v>0.976556315387339</v>
       </c>
       <c r="D15">
-        <v>1.003169217596887</v>
+        <v>1.00509996534693</v>
       </c>
       <c r="E15">
-        <v>0.9971710089353489</v>
-      </c>
-      <c r="F15">
-        <v>1.002290207748914</v>
+        <v>0.9877859151719818</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040400546776739</v>
+        <v>1.040977906666002</v>
       </c>
       <c r="J15">
-        <v>1.009137375073384</v>
+        <v>1.006780765276478</v>
       </c>
       <c r="K15">
-        <v>1.017960016836545</v>
+        <v>1.019854943773274</v>
       </c>
       <c r="L15">
-        <v>1.012074248276452</v>
-      </c>
-      <c r="M15">
-        <v>1.017097374753319</v>
+        <v>1.002868674832428</v>
       </c>
       <c r="N15">
-        <v>1.010570465895663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006439163636549</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025184467243473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.982217595352492</v>
+        <v>0.9789830769847366</v>
       </c>
       <c r="D16">
-        <v>1.005448195312441</v>
+        <v>1.006689324271945</v>
       </c>
       <c r="E16">
-        <v>0.9998894889161778</v>
-      </c>
-      <c r="F16">
-        <v>1.005464478471279</v>
+        <v>0.9896325123378429</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04137312305344</v>
+        <v>1.041515249931743</v>
       </c>
       <c r="J16">
-        <v>1.011075837562575</v>
+        <v>1.007976555040409</v>
       </c>
       <c r="K16">
-        <v>1.019683382003997</v>
+        <v>1.020902516197932</v>
       </c>
       <c r="L16">
-        <v>1.014224055348421</v>
-      </c>
-      <c r="M16">
-        <v>1.019699376143428</v>
+        <v>1.004154275885883</v>
       </c>
       <c r="N16">
-        <v>1.012511681223934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006832475916955</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.025928367348347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.984195427837235</v>
+        <v>0.980488608388247</v>
       </c>
       <c r="D17">
-        <v>1.006859397678849</v>
+        <v>1.00767597159157</v>
       </c>
       <c r="E17">
-        <v>1.001574247531288</v>
-      </c>
-      <c r="F17">
-        <v>1.007431196446886</v>
+        <v>0.9907804875066015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041970762966796</v>
+        <v>1.04184415475096</v>
       </c>
       <c r="J17">
-        <v>1.01227479952681</v>
+        <v>1.008717794497296</v>
       </c>
       <c r="K17">
-        <v>1.020748216320676</v>
+        <v>1.0215507386173</v>
       </c>
       <c r="L17">
-        <v>1.015554730673799</v>
-      </c>
-      <c r="M17">
-        <v>1.021310172476115</v>
+        <v>1.004952122580954</v>
       </c>
       <c r="N17">
-        <v>1.013712345851681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007076305194237</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026389317962474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9853396317461595</v>
+        <v>0.981357365929908</v>
       </c>
       <c r="D18">
-        <v>1.00767607855359</v>
+        <v>1.008242080347566</v>
       </c>
       <c r="E18">
-        <v>1.00254975913888</v>
-      </c>
-      <c r="F18">
-        <v>1.008569791224116</v>
+        <v>0.9914432818717267</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042314958303277</v>
+        <v>1.042030187985724</v>
       </c>
       <c r="J18">
-        <v>1.012968164714901</v>
+        <v>1.009143653157363</v>
       </c>
       <c r="K18">
-        <v>1.021363615403767</v>
+        <v>1.021920045346899</v>
       </c>
       <c r="L18">
-        <v>1.01632462508567</v>
-      </c>
-      <c r="M18">
-        <v>1.02224222052782</v>
+        <v>1.00541136833497</v>
       </c>
       <c r="N18">
-        <v>1.014406695697868</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00721592557344</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026638644304239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9857282007782826</v>
+        <v>0.9816553056300206</v>
       </c>
       <c r="D19">
-        <v>1.007953466377229</v>
+        <v>1.008438919409194</v>
       </c>
       <c r="E19">
-        <v>1.002881183838874</v>
-      </c>
-      <c r="F19">
-        <v>1.008956593142063</v>
+        <v>0.9916710938103854</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042431581612607</v>
+        <v>1.042095368353641</v>
       </c>
       <c r="J19">
-        <v>1.013203585834756</v>
+        <v>1.009290928890305</v>
       </c>
       <c r="K19">
-        <v>1.021572495854648</v>
+        <v>1.022049788153455</v>
       </c>
       <c r="L19">
-        <v>1.016586091439283</v>
-      </c>
-      <c r="M19">
-        <v>1.022558770659397</v>
+        <v>1.005569835881615</v>
       </c>
       <c r="N19">
-        <v>1.014642451142717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007264581056349</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026736856354137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9839842067392817</v>
+        <v>0.9803274223949066</v>
       </c>
       <c r="D20">
-        <v>1.006708659657471</v>
+        <v>1.007570051913993</v>
       </c>
       <c r="E20">
-        <v>1.00139423586433</v>
-      </c>
-      <c r="F20">
-        <v>1.007221076791388</v>
+        <v>0.990657458336377</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041907098568434</v>
+        <v>1.041808944914773</v>
       </c>
       <c r="J20">
-        <v>1.012146783006993</v>
+        <v>1.008638333634197</v>
       </c>
       <c r="K20">
-        <v>1.0206345622596</v>
+        <v>1.021481084440724</v>
       </c>
       <c r="L20">
-        <v>1.015412613538747</v>
-      </c>
-      <c r="M20">
-        <v>1.021138129655362</v>
+        <v>1.004866598728047</v>
       </c>
       <c r="N20">
-        <v>1.013584147533721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007050128779751</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026338715522366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9782015416398476</v>
+        <v>0.9759369423851852</v>
       </c>
       <c r="D21">
-        <v>1.002584743606472</v>
+        <v>1.004696614599053</v>
       </c>
       <c r="E21">
-        <v>0.9964742456993255</v>
-      </c>
-      <c r="F21">
-        <v>1.001476455733189</v>
+        <v>0.9873156618068298</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040149685098862</v>
+        <v>1.040840671163572</v>
       </c>
       <c r="J21">
-        <v>1.00863979042014</v>
+        <v>1.006476356733297</v>
       </c>
       <c r="K21">
-        <v>1.017517312134824</v>
+        <v>1.019589551154398</v>
       </c>
       <c r="L21">
-        <v>1.011522723868878</v>
-      </c>
-      <c r="M21">
-        <v>1.016429910093811</v>
+        <v>1.002541394619859</v>
       </c>
       <c r="N21">
-        <v>1.010072174615137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006339353702642</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025004566602661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9744748060435683</v>
+        <v>0.9731161167935833</v>
       </c>
       <c r="D22">
-        <v>0.9999302593000561</v>
+        <v>1.002848386110468</v>
       </c>
       <c r="E22">
-        <v>0.9933118196652777</v>
-      </c>
-      <c r="F22">
-        <v>0.9977821795554388</v>
+        <v>0.9851760088929882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039003302931334</v>
+        <v>1.040201350265605</v>
       </c>
       <c r="J22">
-        <v>1.006377694347779</v>
+        <v>1.005083360832623</v>
       </c>
       <c r="K22">
-        <v>1.01550309789394</v>
+        <v>1.018363626316484</v>
       </c>
       <c r="L22">
-        <v>1.00901694534089</v>
-      </c>
-      <c r="M22">
-        <v>1.013397700306374</v>
+        <v>1.001046965099085</v>
       </c>
       <c r="N22">
-        <v>1.007806866106888</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00588082245718</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024124075809274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9764593421046535</v>
+        <v>0.9746127146946059</v>
       </c>
       <c r="D23">
-        <v>1.001343469525189</v>
+        <v>1.003824540512501</v>
       </c>
       <c r="E23">
-        <v>0.9949950452309233</v>
-      </c>
-      <c r="F23">
-        <v>0.9997486645607226</v>
+        <v>0.9863098302302407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03961503999453</v>
+        <v>1.040539332850591</v>
       </c>
       <c r="J23">
-        <v>1.007582456577764</v>
+        <v>1.005820640456852</v>
       </c>
       <c r="K23">
-        <v>1.016576163302544</v>
+        <v>1.019009546784328</v>
       </c>
       <c r="L23">
-        <v>1.010351180249569</v>
-      </c>
-      <c r="M23">
-        <v>1.015012175117755</v>
+        <v>1.001838231489634</v>
       </c>
       <c r="N23">
-        <v>1.009013339237427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006122884013805</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024571015617829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9840796775476494</v>
+        <v>0.9803929491081167</v>
       </c>
       <c r="D24">
-        <v>1.006776791575541</v>
+        <v>1.007605936411831</v>
       </c>
       <c r="E24">
-        <v>1.001475597529861</v>
-      </c>
-      <c r="F24">
-        <v>1.007316047212349</v>
+        <v>0.9907064770640632</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041935879341542</v>
+        <v>1.041818799037381</v>
       </c>
       <c r="J24">
-        <v>1.012204646573142</v>
+        <v>1.008667221960596</v>
       </c>
       <c r="K24">
-        <v>1.020685935224176</v>
+        <v>1.021500786994176</v>
       </c>
       <c r="L24">
-        <v>1.015476849480917</v>
-      </c>
-      <c r="M24">
-        <v>1.021215891538874</v>
+        <v>1.004898786962025</v>
       </c>
       <c r="N24">
-        <v>1.013642093272771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007058648191037</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026324886388594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9925551708775049</v>
+        <v>0.9868696888677393</v>
       </c>
       <c r="D25">
-        <v>1.012830357171109</v>
+        <v>1.011849689381461</v>
       </c>
       <c r="E25">
-        <v>1.008716137083824</v>
-      </c>
-      <c r="F25">
-        <v>1.015764100994461</v>
+        <v>0.9956650300824677</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044457330491046</v>
+        <v>1.043188804022277</v>
       </c>
       <c r="J25">
-        <v>1.017335707320171</v>
+        <v>1.011847166905017</v>
       </c>
       <c r="K25">
-        <v>1.02523271064564</v>
+        <v>1.024266797573495</v>
       </c>
       <c r="L25">
-        <v>1.021180636453282</v>
-      </c>
-      <c r="M25">
-        <v>1.028122530941216</v>
+        <v>1.008331015694416</v>
       </c>
       <c r="N25">
-        <v>1.018780440714602</v>
+        <v>1.008104281795306</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.02827774729221</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,40 +439,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9918487393671204</v>
+        <v>0.9924810648846973</v>
       </c>
       <c r="D2">
-        <v>1.015101527873124</v>
+        <v>1.01552733006442</v>
       </c>
       <c r="E2">
-        <v>0.9994992850936072</v>
+        <v>1.000042800127206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044180166153253</v>
+        <v>1.044396280437852</v>
       </c>
       <c r="J2">
-        <v>1.014276016988462</v>
+        <v>1.014889015576472</v>
       </c>
       <c r="K2">
-        <v>1.026354408353326</v>
+        <v>1.026774501205182</v>
       </c>
       <c r="L2">
-        <v>1.010965600080242</v>
+        <v>1.011501538707964</v>
       </c>
       <c r="N2">
-        <v>1.008901499631156</v>
+        <v>1.01131625143255</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029704954102234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030010879973385</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019319743619949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,81 +489,99 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9953783368520773</v>
+        <v>0.9958822845513312</v>
       </c>
       <c r="D3">
-        <v>1.017415029718868</v>
+        <v>1.017673439822726</v>
       </c>
       <c r="E3">
-        <v>1.002231588191761</v>
+        <v>1.002664978186205</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04485594736001</v>
+        <v>1.044987241965202</v>
       </c>
       <c r="J3">
-        <v>1.015995790927691</v>
+        <v>1.01648583556263</v>
       </c>
       <c r="K3">
-        <v>1.027829827492768</v>
+        <v>1.028085071508116</v>
       </c>
       <c r="L3">
-        <v>1.012835994841127</v>
+        <v>1.013263873307287</v>
       </c>
       <c r="N3">
-        <v>1.009467063362027</v>
+        <v>1.011734430978608</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030745531567602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03093461420125</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019566131751463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9976211662531578</v>
+        <v>0.9980445105258413</v>
       </c>
       <c r="D4">
-        <v>1.0188854370615</v>
+        <v>1.019038259270884</v>
       </c>
       <c r="E4">
-        <v>1.003973742662363</v>
+        <v>1.004337849796719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045270471520462</v>
+        <v>1.045348172703772</v>
       </c>
       <c r="J4">
-        <v>1.017085919208335</v>
+        <v>1.017498370542968</v>
       </c>
       <c r="K4">
-        <v>1.028761151926772</v>
+        <v>1.028912213543008</v>
       </c>
       <c r="L4">
-        <v>1.014024443542415</v>
+        <v>1.014384201217834</v>
       </c>
       <c r="N4">
-        <v>1.009825646272931</v>
+        <v>1.011999673076088</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031404979545872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031520475367609</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019718830689735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,40 +589,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9985563183154831</v>
+        <v>0.9989463614354105</v>
       </c>
       <c r="D5">
-        <v>1.019500274343217</v>
+        <v>1.01960937532655</v>
       </c>
       <c r="E5">
-        <v>1.004701739332053</v>
+        <v>1.00503719514931</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045440826963626</v>
+        <v>1.04549631492677</v>
       </c>
       <c r="J5">
-        <v>1.017540673382213</v>
+        <v>1.017920978896417</v>
       </c>
       <c r="K5">
-        <v>1.029150063330554</v>
+        <v>1.029257940559109</v>
       </c>
       <c r="L5">
-        <v>1.014520563016671</v>
+        <v>1.014852118973559</v>
       </c>
       <c r="N5">
-        <v>1.009975433773127</v>
+        <v>1.012110545124864</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031687230505427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.031772900121623</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019782194063905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,40 +639,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9987149920775737</v>
+        <v>0.9990995009121281</v>
       </c>
       <c r="D6">
-        <v>1.019606681662998</v>
+        <v>1.019708522962934</v>
       </c>
       <c r="E6">
-        <v>1.004825589924574</v>
+        <v>1.00515628629051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045470913989854</v>
+        <v>1.045522712327291</v>
       </c>
       <c r="J6">
-        <v>1.017618875973585</v>
+        <v>1.017993834477399</v>
       </c>
       <c r="K6">
-        <v>1.029218539718372</v>
+        <v>1.029319243875485</v>
       </c>
       <c r="L6">
-        <v>1.014605510547716</v>
+        <v>1.014932380085116</v>
       </c>
       <c r="N6">
-        <v>1.010001415028366</v>
+        <v>1.012129839574621</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.031744493173526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03182595818578</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019793661277344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,40 +689,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9976395605951927</v>
+        <v>0.9980699688717133</v>
       </c>
       <c r="D7">
-        <v>1.018903060932134</v>
+        <v>1.019060312512478</v>
       </c>
       <c r="E7">
-        <v>1.00398871028785</v>
+        <v>1.004359026132613</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045277540181569</v>
+        <v>1.045357493785418</v>
       </c>
       <c r="J7">
-        <v>1.017097727113312</v>
+        <v>1.017517065406258</v>
       </c>
       <c r="K7">
-        <v>1.028775646008094</v>
+        <v>1.028931086659522</v>
       </c>
       <c r="L7">
-        <v>1.014036246924495</v>
+        <v>1.014402140826676</v>
       </c>
       <c r="N7">
-        <v>1.009830135607598</v>
+        <v>1.012030868560519</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031435568120587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031556156226087</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019723375361077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,40 +739,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9930572075824637</v>
+        <v>0.9936685460820125</v>
       </c>
       <c r="D8">
-        <v>1.015900152237742</v>
+        <v>1.016283979915219</v>
       </c>
       <c r="E8">
-        <v>1.000434330138509</v>
+        <v>1.000960306119646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044418971656494</v>
+        <v>1.044613851625657</v>
       </c>
       <c r="J8">
-        <v>1.014868740439568</v>
+        <v>1.015462018217046</v>
       </c>
       <c r="K8">
-        <v>1.026868968458929</v>
+        <v>1.0272478011611</v>
       </c>
       <c r="L8">
-        <v>1.011608421358825</v>
+        <v>1.012127285142834</v>
       </c>
       <c r="N8">
-        <v>1.009097175971438</v>
+        <v>1.011545320382958</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030091976857753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030370989956737</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019411104129534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,40 +789,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.984646360268258</v>
+        <v>0.9855726847770458</v>
       </c>
       <c r="D9">
-        <v>1.010384688408487</v>
+        <v>1.011173782999606</v>
       </c>
       <c r="E9">
-        <v>0.9939579340215691</v>
+        <v>0.994753169852084</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042721959358113</v>
+        <v>1.043121643855219</v>
       </c>
       <c r="J9">
-        <v>1.010753193502957</v>
+        <v>1.011645401204458</v>
       </c>
       <c r="K9">
-        <v>1.023311498551117</v>
+        <v>1.024088137826122</v>
       </c>
       <c r="L9">
-        <v>1.007149806123142</v>
+        <v>1.007931950698343</v>
       </c>
       <c r="N9">
-        <v>1.007743533698105</v>
+        <v>1.010555089978641</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027573336909257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028133360318393</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018800636790247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,40 +839,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9788015777364849</v>
+        <v>0.9799865879863816</v>
       </c>
       <c r="D10">
-        <v>1.006560043640737</v>
+        <v>1.007657459189846</v>
       </c>
       <c r="E10">
-        <v>0.9894927862611599</v>
+        <v>0.9905086797778504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041468945365383</v>
+        <v>1.04202393714707</v>
       </c>
       <c r="J10">
-        <v>1.007882251860678</v>
+        <v>1.009017382294588</v>
       </c>
       <c r="K10">
-        <v>1.020811856086939</v>
+        <v>1.021889818677579</v>
       </c>
       <c r="L10">
-        <v>1.004054379045303</v>
+        <v>1.005051443935101</v>
       </c>
       <c r="N10">
-        <v>1.006799988189615</v>
+        <v>1.009983938781939</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025822916120532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026597680395057</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01836283696018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,40 +889,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9762152120368554</v>
+        <v>0.9775700208739736</v>
       </c>
       <c r="D11">
-        <v>1.004875546912576</v>
+        <v>1.006146044809671</v>
       </c>
       <c r="E11">
-        <v>0.9875265732959638</v>
+        <v>0.9886880738328743</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040901001535125</v>
+        <v>1.041543102526298</v>
       </c>
       <c r="J11">
-        <v>1.006612069366665</v>
+        <v>1.00790662787615</v>
       </c>
       <c r="K11">
-        <v>1.019706099578338</v>
+        <v>1.020952979078351</v>
       </c>
       <c r="L11">
-        <v>1.002687617201805</v>
+        <v>1.003826516639438</v>
       </c>
       <c r="N11">
-        <v>1.00638351637507</v>
+        <v>1.009921823901152</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025074356972233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025971769325229</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018174985209154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,40 +939,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9752416225946726</v>
+        <v>0.9766652997344012</v>
       </c>
       <c r="D12">
-        <v>1.004238590975949</v>
+        <v>1.005577350231555</v>
       </c>
       <c r="E12">
-        <v>0.9867873450201087</v>
+        <v>0.9880079263169063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040682704743471</v>
+        <v>1.04135913998655</v>
       </c>
       <c r="J12">
-        <v>1.006132061569915</v>
+        <v>1.007491144053222</v>
       </c>
       <c r="K12">
-        <v>1.01928503432003</v>
+        <v>1.020598471443811</v>
       </c>
       <c r="L12">
-        <v>1.002172133285909</v>
+        <v>1.003368539212777</v>
       </c>
       <c r="N12">
-        <v>1.006225683357249</v>
+        <v>1.00991461361422</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024776642577659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025721120503975</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018103269041619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,40 +989,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9754502729565997</v>
+        <v>0.9768589374938739</v>
       </c>
       <c r="D13">
-        <v>1.004374453422133</v>
+        <v>1.005698388456417</v>
       </c>
       <c r="E13">
-        <v>0.9869456167203704</v>
+        <v>0.9881533212552975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040729217029033</v>
+        <v>1.04139819686107</v>
       </c>
       <c r="J13">
-        <v>1.006234655549605</v>
+        <v>1.00757967952675</v>
       </c>
       <c r="K13">
-        <v>1.019374568952948</v>
+        <v>1.020673554632025</v>
       </c>
       <c r="L13">
-        <v>1.002282374896316</v>
+        <v>1.003466249437821</v>
       </c>
       <c r="N13">
-        <v>1.006259324650312</v>
+        <v>1.009915262895002</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024837420895832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025771437979504</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018118438315115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,40 +1039,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.976134662812648</v>
+        <v>0.9774950531899517</v>
       </c>
       <c r="D14">
-        <v>1.004822572147977</v>
+        <v>1.006098628958994</v>
       </c>
       <c r="E14">
-        <v>0.9874653470781249</v>
+        <v>0.9886316366489686</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040882826927696</v>
+        <v>1.041527724353895</v>
       </c>
       <c r="J14">
-        <v>1.006572237542381</v>
+        <v>1.007872028545964</v>
       </c>
       <c r="K14">
-        <v>1.019670961598788</v>
+        <v>1.02092326248795</v>
       </c>
       <c r="L14">
-        <v>1.002644869245573</v>
+        <v>1.003788431080098</v>
       </c>
       <c r="N14">
-        <v>1.006370379509896</v>
+        <v>1.00992081812642</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025048430036619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025949572517638</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018168964853674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,40 +1089,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.976556315387339</v>
+        <v>0.9778876953366989</v>
       </c>
       <c r="D15">
-        <v>1.00509996534693</v>
+        <v>1.006347062236727</v>
       </c>
       <c r="E15">
-        <v>0.9877859151719818</v>
+        <v>0.9889273141447374</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040977906666002</v>
+        <v>1.041608234857623</v>
       </c>
       <c r="J15">
-        <v>1.006780765276478</v>
+        <v>1.008053354210103</v>
       </c>
       <c r="K15">
-        <v>1.019854943773274</v>
+        <v>1.021078998720195</v>
       </c>
       <c r="L15">
-        <v>1.002868674832428</v>
+        <v>1.003988002409979</v>
       </c>
       <c r="N15">
-        <v>1.006439163636549</v>
+        <v>1.009926775562168</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025184467243473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.02606620508878</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018200504615279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,40 +1139,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9789830769847366</v>
+        <v>0.9801578337998206</v>
       </c>
       <c r="D16">
-        <v>1.006689324271945</v>
+        <v>1.007776188463185</v>
       </c>
       <c r="E16">
-        <v>0.9896325123378429</v>
+        <v>0.9906396032711162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041515249931743</v>
+        <v>1.042064930214909</v>
       </c>
       <c r="J16">
-        <v>1.007976555040409</v>
+        <v>1.009102048132849</v>
       </c>
       <c r="K16">
-        <v>1.020902516197932</v>
+        <v>1.021970177130946</v>
       </c>
       <c r="L16">
-        <v>1.004154275885883</v>
+        <v>1.005142763020159</v>
       </c>
       <c r="N16">
-        <v>1.006832475916955</v>
+        <v>1.00999479439609</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.025928367348347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026699820573848</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018379718690299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,40 +1189,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.980488608388247</v>
+        <v>0.9815770722360516</v>
       </c>
       <c r="D17">
-        <v>1.00767597159157</v>
+        <v>1.008670577767925</v>
       </c>
       <c r="E17">
-        <v>0.9907804875066015</v>
+        <v>0.9917136506649482</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04184415475096</v>
+        <v>1.042347372168392</v>
       </c>
       <c r="J17">
-        <v>1.008717794497296</v>
+        <v>1.009762100610828</v>
       </c>
       <c r="K17">
-        <v>1.0215507386173</v>
+        <v>1.022528269313867</v>
       </c>
       <c r="L17">
-        <v>1.004952122580954</v>
+        <v>1.005868546466072</v>
       </c>
       <c r="N17">
-        <v>1.007076305194237</v>
+        <v>1.010073542590606</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026389317962474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027097287792388</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018491356720209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,40 +1239,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.981357365929908</v>
+        <v>0.9824001039304529</v>
       </c>
       <c r="D18">
-        <v>1.008242080347566</v>
+        <v>1.009185971761803</v>
       </c>
       <c r="E18">
-        <v>0.9914432818717267</v>
+        <v>0.9923373099636454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042030187985724</v>
+        <v>1.042507855684861</v>
       </c>
       <c r="J18">
-        <v>1.009143653157363</v>
+        <v>1.010144908894113</v>
       </c>
       <c r="K18">
-        <v>1.021920045346899</v>
+        <v>1.022848005094395</v>
       </c>
       <c r="L18">
-        <v>1.00541136833497</v>
+        <v>1.006289635430048</v>
       </c>
       <c r="N18">
-        <v>1.00721592557344</v>
+        <v>1.010132520211454</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026638644304239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027310429742174</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01855485491656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,40 +1289,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9816553056300206</v>
+        <v>0.9826832915392085</v>
       </c>
       <c r="D19">
-        <v>1.008438919409194</v>
+        <v>1.009366148335019</v>
       </c>
       <c r="E19">
-        <v>0.9916710938103854</v>
+        <v>0.9925525038952835</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042095368353641</v>
+        <v>1.042564640570332</v>
       </c>
       <c r="J19">
-        <v>1.009290928890305</v>
+        <v>1.010278293827864</v>
       </c>
       <c r="K19">
-        <v>1.022049788153455</v>
+        <v>1.022961457970301</v>
       </c>
       <c r="L19">
-        <v>1.005569835881615</v>
+        <v>1.006435799989392</v>
       </c>
       <c r="N19">
-        <v>1.007264581056349</v>
+        <v>1.01015612391469</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026736856354137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027397743844114</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018577570725979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,40 +1339,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9803274223949066</v>
+        <v>0.9814246672111611</v>
       </c>
       <c r="D20">
-        <v>1.007570051913993</v>
+        <v>1.008574222683866</v>
       </c>
       <c r="E20">
-        <v>0.990657458336377</v>
+        <v>0.991598140550711</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041808944914773</v>
+        <v>1.042316980145001</v>
       </c>
       <c r="J20">
-        <v>1.008638333634197</v>
+        <v>1.009690904707038</v>
       </c>
       <c r="K20">
-        <v>1.021481084440724</v>
+        <v>1.022467961827236</v>
       </c>
       <c r="L20">
-        <v>1.004866598728047</v>
+        <v>1.005790353085374</v>
       </c>
       <c r="N20">
-        <v>1.007050128779751</v>
+        <v>1.010063540335751</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026338715522366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027053165223554</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018479292852745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1212,40 +1389,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9759369423851852</v>
+        <v>0.9773296842038108</v>
       </c>
       <c r="D21">
-        <v>1.004696614599053</v>
+        <v>1.005998747380453</v>
       </c>
       <c r="E21">
-        <v>0.9873156618068298</v>
+        <v>0.9885099970352353</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040840671163572</v>
+        <v>1.041498714126666</v>
       </c>
       <c r="J21">
-        <v>1.006476356733297</v>
+        <v>1.007806801661389</v>
       </c>
       <c r="K21">
-        <v>1.019589551154398</v>
+        <v>1.020867355954349</v>
       </c>
       <c r="L21">
-        <v>1.002541394619859</v>
+        <v>1.003712370454601</v>
       </c>
       <c r="N21">
-        <v>1.006339353702642</v>
+        <v>1.009985611490616</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025004566602661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025925050749503</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01815841485014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,40 +1439,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9731161167935833</v>
+        <v>0.9746974012758134</v>
       </c>
       <c r="D22">
-        <v>1.002848386110468</v>
+        <v>1.00434093478471</v>
       </c>
       <c r="E22">
-        <v>0.9851760088929882</v>
+        <v>0.9865317980462218</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040201350265605</v>
+        <v>1.040955095915719</v>
       </c>
       <c r="J22">
-        <v>1.005083360832623</v>
+        <v>1.006589770742726</v>
       </c>
       <c r="K22">
-        <v>1.018363626316484</v>
+        <v>1.019826884629752</v>
       </c>
       <c r="L22">
-        <v>1.001046965099085</v>
+        <v>1.002374868913108</v>
       </c>
       <c r="N22">
-        <v>1.00588082245718</v>
+        <v>1.009922654346694</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024124075809274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025174394686746</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017946315551082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,40 +1489,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9746127146946059</v>
+        <v>0.976081884514259</v>
       </c>
       <c r="D23">
-        <v>1.003824540512501</v>
+        <v>1.005207933796063</v>
       </c>
       <c r="E23">
-        <v>0.9863098302302407</v>
+        <v>0.9875694530703459</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040539332850591</v>
+        <v>1.041238211629902</v>
       </c>
       <c r="J23">
-        <v>1.005820640456852</v>
+        <v>1.007222297279876</v>
       </c>
       <c r="K23">
-        <v>1.019009546784328</v>
+        <v>1.020366484256779</v>
       </c>
       <c r="L23">
-        <v>1.001838231489634</v>
+        <v>1.003072623332576</v>
       </c>
       <c r="N23">
-        <v>1.006122884013805</v>
+        <v>1.009913002378513</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024571015617829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025545217238723</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018056049375932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,40 +1539,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9803929491081167</v>
+        <v>0.9814861337291089</v>
       </c>
       <c r="D24">
-        <v>1.007605936411831</v>
+        <v>1.008605573115521</v>
       </c>
       <c r="E24">
-        <v>0.9907064770640632</v>
+        <v>0.9916436855907927</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041818799037381</v>
+        <v>1.042324549715772</v>
       </c>
       <c r="J24">
-        <v>1.008667221960596</v>
+        <v>1.009715969161552</v>
       </c>
       <c r="K24">
-        <v>1.021500786994176</v>
+        <v>1.022483232026342</v>
       </c>
       <c r="L24">
-        <v>1.004898786962025</v>
+        <v>1.005819154034936</v>
       </c>
       <c r="N24">
-        <v>1.007058648191037</v>
+        <v>1.010065372982978</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026324886388594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027033536038544</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018481789345995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,37 +1589,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9868696888677393</v>
+        <v>0.9877031140330359</v>
       </c>
       <c r="D25">
-        <v>1.011849689381461</v>
+        <v>1.012525570259172</v>
       </c>
       <c r="E25">
-        <v>0.9956650300824677</v>
+        <v>0.9963808429703747</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043188804022277</v>
+        <v>1.04353135409486</v>
       </c>
       <c r="J25">
-        <v>1.011847166905017</v>
+        <v>1.012651524506716</v>
       </c>
       <c r="K25">
-        <v>1.024266797573495</v>
+        <v>1.024932505533242</v>
       </c>
       <c r="L25">
-        <v>1.008331015694416</v>
+        <v>1.009035602703964</v>
       </c>
       <c r="N25">
-        <v>1.008104281795306</v>
+        <v>1.010786551314395</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.02827774729221</v>
+        <v>1.028762129128834</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01896671542743</v>
       </c>
     </row>
   </sheetData>
